--- a/overall_results.xlsx
+++ b/overall_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,10 +391,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1800</v>
-      </c>
-      <c r="B2">
-        <v>0.7608426826670345</v>
+        <v>1820</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -408,21 +405,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B3">
-        <v>0.7966442985489749</v>
+        <v>0.3988897329785302</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -436,21 +433,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B4">
-        <v>0.7896831610555303</v>
+        <v>0.6562042603080587</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -464,21 +461,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B5">
-        <v>0.7644529814122928</v>
+        <v>0.6836505178304066</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -492,21 +489,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B6">
-        <v>0.7750870844832742</v>
+        <v>0.6877954629479958</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -520,21 +517,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B7">
-        <v>0.7651039093444436</v>
+        <v>0.7099731338328849</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -548,21 +545,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B8">
-        <v>0.8071249350937377</v>
+        <v>0.5919218101478206</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -576,21 +573,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B9">
-        <v>0.8114074932428972</v>
+        <v>0.6685738105042326</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -604,21 +601,21 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B10">
-        <v>0.8431183909869063</v>
+        <v>0.643295295386615</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -632,21 +629,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B11">
-        <v>0.833993111378289</v>
+        <v>0.7696505536337467</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -660,21 +657,21 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B12">
-        <v>0.8811295712577345</v>
+        <v>0.8725236299720505</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -688,21 +685,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B13">
-        <v>0.9010926282196993</v>
+        <v>0.830324456063815</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -716,21 +713,21 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B14">
-        <v>0.8905408087672476</v>
+        <v>0.8898031307349038</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -744,21 +741,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B15">
-        <v>0.8967956465520671</v>
+        <v>0.9045828712959143</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -772,21 +769,21 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B16">
-        <v>0.9144132220058684</v>
+        <v>0.8828480724957739</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -800,21 +797,21 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B17">
-        <v>0.9225972050204796</v>
+        <v>0.8454384331043132</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -828,21 +825,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B18">
-        <v>0.9146059482512264</v>
+        <v>0.8918350074449456</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -856,21 +853,21 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B19">
-        <v>0.9262759968197449</v>
+        <v>0.8672343020391332</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -884,21 +881,21 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B20">
-        <v>0.9288814616198942</v>
+        <v>0.9285655239881473</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -912,21 +909,21 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B21">
-        <v>0.9324082188317472</v>
+        <v>0.9350873189478498</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -940,21 +937,21 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1820</v>
+        <v>1800</v>
       </c>
       <c r="B22">
-        <v>-0.05807033164434925</v>
+        <v>0.7608426826670345</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -968,21 +965,21 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="B23">
-        <v>0.4901586910593063</v>
+        <v>0.7966442985489749</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -996,21 +993,21 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="B24">
-        <v>0.6584366021206138</v>
+        <v>0.7896831610555303</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1024,21 +1021,21 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="B25">
-        <v>0.6159716513094075</v>
+        <v>0.7644529814122928</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1052,21 +1049,21 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="B26">
-        <v>0.6761905177280739</v>
+        <v>0.7750870844832742</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1080,21 +1077,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="B27">
-        <v>0.709043910722309</v>
+        <v>0.7651039093444436</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1108,21 +1105,21 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="B28">
-        <v>0.7369812661742955</v>
+        <v>0.8071249350937377</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1136,21 +1133,21 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="B29">
-        <v>0.7542641647138938</v>
+        <v>0.8114074932428972</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1164,21 +1161,21 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="B30">
-        <v>0.7118853125963011</v>
+        <v>0.8431183909869063</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1192,21 +1189,21 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="B31">
-        <v>0.8407230059818517</v>
+        <v>0.833993111378289</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1220,21 +1217,21 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="B32">
-        <v>0.8957642917755252</v>
+        <v>0.8811295712577345</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1248,21 +1245,21 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="B33">
-        <v>0.8675118931048572</v>
+        <v>0.9010926282196993</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1276,21 +1273,21 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="B34">
-        <v>0.9125844148620592</v>
+        <v>0.8905408087672476</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1304,21 +1301,21 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="B35">
-        <v>0.9295092797235537</v>
+        <v>0.8967956465520671</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1332,21 +1329,21 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1960</v>
+        <v>1940</v>
       </c>
       <c r="B36">
-        <v>0.9099775955587934</v>
+        <v>0.9144132220058684</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1360,21 +1357,21 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="B37">
-        <v>0.9225011360898194</v>
+        <v>0.9225972050204796</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1388,21 +1385,21 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="B38">
-        <v>0.9318718945592638</v>
+        <v>0.9146059482512264</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1416,21 +1413,21 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="B39">
-        <v>0.9406540173235107</v>
+        <v>0.9262759968197449</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1444,21 +1441,21 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="B40">
-        <v>0.9335209996597322</v>
+        <v>0.9288814616198942</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1472,21 +1469,21 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B41">
-        <v>0.9223816590435469</v>
+        <v>0.9324082188317472</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1500,12 +1497,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1511,7 @@
         <v>1820</v>
       </c>
       <c r="B42">
-        <v>-0.5872218883677182</v>
+        <v>-0.05807033164434925</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1528,7 +1525,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1542,7 +1539,7 @@
         <v>1830</v>
       </c>
       <c r="B43">
-        <v>0.6027176768606833</v>
+        <v>0.4901586910593063</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1556,7 +1553,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1570,7 +1567,7 @@
         <v>1840</v>
       </c>
       <c r="B44">
-        <v>0.6447359483553137</v>
+        <v>0.6584366021206138</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1584,7 +1581,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1598,7 +1595,7 @@
         <v>1850</v>
       </c>
       <c r="B45">
-        <v>0.6552649231518565</v>
+        <v>0.6159716513094075</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1612,7 +1609,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1626,7 +1623,7 @@
         <v>1860</v>
       </c>
       <c r="B46">
-        <v>0.6353406788599211</v>
+        <v>0.6761905177280739</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1640,7 +1637,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1654,7 +1651,7 @@
         <v>1870</v>
       </c>
       <c r="B47">
-        <v>0.7591152166322004</v>
+        <v>0.709043910722309</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1668,7 +1665,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1682,7 +1679,7 @@
         <v>1880</v>
       </c>
       <c r="B48">
-        <v>0.7507673606592689</v>
+        <v>0.7369812661742955</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1696,7 +1693,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1710,7 +1707,7 @@
         <v>1890</v>
       </c>
       <c r="B49">
-        <v>0.8114429335343581</v>
+        <v>0.7542641647138938</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1724,7 +1721,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1738,7 +1735,7 @@
         <v>1900</v>
       </c>
       <c r="B50">
-        <v>0.7196740864778605</v>
+        <v>0.7118853125963011</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1752,7 +1749,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1766,7 +1763,7 @@
         <v>1910</v>
       </c>
       <c r="B51">
-        <v>0.8758227159066858</v>
+        <v>0.8407230059818517</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1780,7 +1777,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1794,7 +1791,7 @@
         <v>1920</v>
       </c>
       <c r="B52">
-        <v>0.846840760176095</v>
+        <v>0.8957642917755252</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1808,7 +1805,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1822,7 +1819,7 @@
         <v>1930</v>
       </c>
       <c r="B53">
-        <v>0.7639775468052367</v>
+        <v>0.8675118931048572</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1836,7 +1833,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1850,7 +1847,7 @@
         <v>1940</v>
       </c>
       <c r="B54">
-        <v>0.8957037707567568</v>
+        <v>0.9125844148620592</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1864,7 +1861,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -1878,7 +1875,7 @@
         <v>1950</v>
       </c>
       <c r="B55">
-        <v>0.9116410758657647</v>
+        <v>0.9295092797235537</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1892,7 +1889,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1906,7 +1903,7 @@
         <v>1960</v>
       </c>
       <c r="B56">
-        <v>0.9190026757684122</v>
+        <v>0.9099775955587934</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1920,7 +1917,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -1934,7 +1931,7 @@
         <v>1970</v>
       </c>
       <c r="B57">
-        <v>0.9257255579931348</v>
+        <v>0.9225011360898194</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1948,7 +1945,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -1962,7 +1959,7 @@
         <v>1980</v>
       </c>
       <c r="B58">
-        <v>0.8953596900120414</v>
+        <v>0.9318718945592638</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1976,7 +1973,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -1990,7 +1987,7 @@
         <v>1990</v>
       </c>
       <c r="B59">
-        <v>0.8980938222120606</v>
+        <v>0.9406540173235107</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2004,7 +2001,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2018,7 +2015,7 @@
         <v>2000</v>
       </c>
       <c r="B60">
-        <v>0.9365343732011795</v>
+        <v>0.9335209996597322</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2032,7 +2029,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2046,7 +2043,7 @@
         <v>2010</v>
       </c>
       <c r="B61">
-        <v>0.8944044038190643</v>
+        <v>0.9223816590435469</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2060,7 +2057,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2074,11 +2071,11 @@
         <v>1820</v>
       </c>
       <c r="B62">
-        <v>0.5666161994367269</v>
+        <v>-0.5872218883677182</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2102,11 +2099,11 @@
         <v>1830</v>
       </c>
       <c r="B63">
-        <v>0.4309299030826184</v>
+        <v>0.6027176768606833</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2130,11 +2127,11 @@
         <v>1840</v>
       </c>
       <c r="B64">
-        <v>0.1850313863970557</v>
+        <v>0.6447359483553137</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2158,11 +2155,11 @@
         <v>1850</v>
       </c>
       <c r="B65">
-        <v>0.2648075056560554</v>
+        <v>0.6552649231518565</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2186,11 +2183,11 @@
         <v>1860</v>
       </c>
       <c r="B66">
-        <v>0.3305753484490074</v>
+        <v>0.6353406788599211</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2214,11 +2211,11 @@
         <v>1870</v>
       </c>
       <c r="B67">
-        <v>0.4125082391474045</v>
+        <v>0.7591152166322004</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2242,11 +2239,11 @@
         <v>1880</v>
       </c>
       <c r="B68">
-        <v>0.2793425072668656</v>
+        <v>0.7507673606592689</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2270,11 +2267,11 @@
         <v>1890</v>
       </c>
       <c r="B69">
-        <v>0.3600383615420568</v>
+        <v>0.8114429335343581</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2298,11 +2295,11 @@
         <v>1900</v>
       </c>
       <c r="B70">
-        <v>0.315820841870543</v>
+        <v>0.7196740864778605</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2326,11 +2323,11 @@
         <v>1910</v>
       </c>
       <c r="B71">
-        <v>0.5707101421797228</v>
+        <v>0.8758227159066858</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2354,11 +2351,11 @@
         <v>1920</v>
       </c>
       <c r="B72">
-        <v>0.4633637551988769</v>
+        <v>0.846840760176095</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2382,11 +2379,11 @@
         <v>1930</v>
       </c>
       <c r="B73">
-        <v>0.328295681108483</v>
+        <v>0.7639775468052367</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2410,11 +2407,11 @@
         <v>1940</v>
       </c>
       <c r="B74">
-        <v>0.610728923057454</v>
+        <v>0.8957037707567568</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2438,11 +2435,11 @@
         <v>1950</v>
       </c>
       <c r="B75">
-        <v>0.5777283520104863</v>
+        <v>0.9116410758657647</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2466,11 +2463,11 @@
         <v>1960</v>
       </c>
       <c r="B76">
-        <v>0.5585067637529638</v>
+        <v>0.9190026757684122</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2494,11 +2491,11 @@
         <v>1970</v>
       </c>
       <c r="B77">
-        <v>0.6213059234030045</v>
+        <v>0.9257255579931348</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2522,11 +2519,11 @@
         <v>1980</v>
       </c>
       <c r="B78">
-        <v>0.6853385921339691</v>
+        <v>0.8953596900120414</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2550,11 +2547,11 @@
         <v>1990</v>
       </c>
       <c r="B79">
-        <v>0.6157834028804585</v>
+        <v>0.8980938222120606</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2578,11 +2575,11 @@
         <v>2000</v>
       </c>
       <c r="B80">
-        <v>0.7589618545594163</v>
+        <v>0.9365343732011795</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2606,11 +2603,11 @@
         <v>2010</v>
       </c>
       <c r="B81">
-        <v>0.6207805455457333</v>
+        <v>0.8944044038190643</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2631,14 +2628,14 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B82">
-        <v>0.7465133787955455</v>
+        <v>0.5666161994367269</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2648,25 +2645,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B83">
-        <v>0.7162459763027341</v>
+        <v>0.4309299030826184</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2676,25 +2673,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B84">
-        <v>0.725254397508172</v>
+        <v>0.1850313863970557</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2704,25 +2701,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B85">
-        <v>0.7399759768906258</v>
+        <v>0.2648075056560554</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2732,25 +2729,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B86">
-        <v>0.7489612826124944</v>
+        <v>0.3305753484490074</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2760,25 +2757,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B87">
-        <v>0.7321367157801644</v>
+        <v>0.4125082391474045</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2788,25 +2785,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B88">
-        <v>0.7264995731694706</v>
+        <v>0.2793425072668656</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2816,25 +2813,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B89">
-        <v>0.7860329339033032</v>
+        <v>0.3600383615420568</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2844,25 +2841,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B90">
-        <v>0.8091151483967732</v>
+        <v>0.315820841870543</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2872,25 +2869,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B91">
-        <v>0.8062662299535902</v>
+        <v>0.5707101421797228</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2900,25 +2897,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B92">
-        <v>0.8376657220786419</v>
+        <v>0.4633637551988769</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2928,25 +2925,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B93">
-        <v>0.8863795546995588</v>
+        <v>0.328295681108483</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2956,25 +2953,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B94">
-        <v>0.859679201007937</v>
+        <v>0.610728923057454</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2984,25 +2981,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B95">
-        <v>0.8695002052785591</v>
+        <v>0.5777283520104863</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3012,25 +3009,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B96">
-        <v>0.879814419390323</v>
+        <v>0.5585067637529638</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3040,25 +3037,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B97">
-        <v>0.8975192139769586</v>
+        <v>0.6213059234030045</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3068,25 +3065,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B98">
-        <v>0.9137856358243047</v>
+        <v>0.6853385921339691</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3096,25 +3093,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B99">
-        <v>0.9324681882885115</v>
+        <v>0.6157834028804585</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3124,25 +3121,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B100">
-        <v>0.9303790708642815</v>
+        <v>0.7589618545594163</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3152,25 +3149,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B101">
-        <v>0.9402086690825767</v>
+        <v>0.6207805455457333</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3180,12 +3177,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
@@ -3194,7 +3191,7 @@
         <v>1800</v>
       </c>
       <c r="B102">
-        <v>0.765859545547622</v>
+        <v>0.7465133787955455</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3208,7 +3205,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3222,7 +3219,7 @@
         <v>1810</v>
       </c>
       <c r="B103">
-        <v>0.7514238001736561</v>
+        <v>0.7162459763027341</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3236,7 +3233,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3250,7 +3247,7 @@
         <v>1820</v>
       </c>
       <c r="B104">
-        <v>0.8091155754587052</v>
+        <v>0.725254397508172</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3264,7 +3261,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3278,7 +3275,7 @@
         <v>1830</v>
       </c>
       <c r="B105">
-        <v>0.8133261560234039</v>
+        <v>0.7399759768906258</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3292,7 +3289,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3306,7 +3303,7 @@
         <v>1840</v>
       </c>
       <c r="B106">
-        <v>0.8077160576542243</v>
+        <v>0.7489612826124944</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3320,7 +3317,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3334,7 +3331,7 @@
         <v>1850</v>
       </c>
       <c r="B107">
-        <v>0.7680580681304642</v>
+        <v>0.7321367157801644</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3348,7 +3345,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3362,7 +3359,7 @@
         <v>1860</v>
       </c>
       <c r="B108">
-        <v>0.7909908056217033</v>
+        <v>0.7264995731694706</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3376,7 +3373,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3390,7 +3387,7 @@
         <v>1870</v>
       </c>
       <c r="B109">
-        <v>0.7664100080876263</v>
+        <v>0.7860329339033032</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3404,7 +3401,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3418,7 +3415,7 @@
         <v>1880</v>
       </c>
       <c r="B110">
-        <v>0.8050083262707712</v>
+        <v>0.8091151483967732</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3432,7 +3429,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3446,7 +3443,7 @@
         <v>1890</v>
       </c>
       <c r="B111">
-        <v>0.7759674304522201</v>
+        <v>0.8062662299535902</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3460,7 +3457,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3474,7 +3471,7 @@
         <v>1900</v>
       </c>
       <c r="B112">
-        <v>0.8418193951332069</v>
+        <v>0.8376657220786419</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3488,7 +3485,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -3502,7 +3499,7 @@
         <v>1910</v>
       </c>
       <c r="B113">
-        <v>0.8775059497628813</v>
+        <v>0.8863795546995588</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3516,7 +3513,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3530,7 +3527,7 @@
         <v>1920</v>
       </c>
       <c r="B114">
-        <v>0.8494731981197068</v>
+        <v>0.859679201007937</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3544,7 +3541,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3558,7 +3555,7 @@
         <v>1930</v>
       </c>
       <c r="B115">
-        <v>0.850999883154272</v>
+        <v>0.8695002052785591</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3572,7 +3569,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3586,7 +3583,7 @@
         <v>1940</v>
       </c>
       <c r="B116">
-        <v>0.8675690600894744</v>
+        <v>0.879814419390323</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3600,7 +3597,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -3614,7 +3611,7 @@
         <v>1950</v>
       </c>
       <c r="B117">
-        <v>0.8755644396439791</v>
+        <v>0.8975192139769586</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3628,7 +3625,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3642,7 +3639,7 @@
         <v>1960</v>
       </c>
       <c r="B118">
-        <v>0.8831264458279316</v>
+        <v>0.9137856358243047</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3656,7 +3653,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -3670,7 +3667,7 @@
         <v>1970</v>
       </c>
       <c r="B119">
-        <v>0.8839363257408782</v>
+        <v>0.9324681882885115</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3684,7 +3681,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -3698,7 +3695,7 @@
         <v>1980</v>
       </c>
       <c r="B120">
-        <v>0.9003652863920215</v>
+        <v>0.9303790708642815</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3712,7 +3709,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -3726,7 +3723,7 @@
         <v>1990</v>
       </c>
       <c r="B121">
-        <v>0.9272440403722584</v>
+        <v>0.9402086690825767</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3740,7 +3737,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -3754,7 +3751,7 @@
         <v>1800</v>
       </c>
       <c r="B122">
-        <v>0.7935204340140363</v>
+        <v>0.765859545547622</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3768,7 +3765,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -3782,7 +3779,7 @@
         <v>1810</v>
       </c>
       <c r="B123">
-        <v>0.7617412219324035</v>
+        <v>0.7514238001736561</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3796,7 +3793,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -3810,7 +3807,7 @@
         <v>1820</v>
       </c>
       <c r="B124">
-        <v>0.7607974028317466</v>
+        <v>0.8091155754587052</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3824,7 +3821,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -3838,7 +3835,7 @@
         <v>1830</v>
       </c>
       <c r="B125">
-        <v>0.7727494818286386</v>
+        <v>0.8133261560234039</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3852,7 +3849,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -3866,7 +3863,7 @@
         <v>1840</v>
       </c>
       <c r="B126">
-        <v>0.7953869289576759</v>
+        <v>0.8077160576542243</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3880,7 +3877,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -3894,7 +3891,7 @@
         <v>1850</v>
       </c>
       <c r="B127">
-        <v>0.7455644859395024</v>
+        <v>0.7680580681304642</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3908,7 +3905,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -3922,7 +3919,7 @@
         <v>1860</v>
       </c>
       <c r="B128">
-        <v>0.7836916089338575</v>
+        <v>0.7909908056217033</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3936,7 +3933,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -3950,7 +3947,7 @@
         <v>1870</v>
       </c>
       <c r="B129">
-        <v>0.7701490434447829</v>
+        <v>0.7664100080876263</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3964,7 +3961,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -3978,7 +3975,7 @@
         <v>1880</v>
       </c>
       <c r="B130">
-        <v>0.8114503343484192</v>
+        <v>0.8050083262707712</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3992,7 +3989,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4006,7 +4003,7 @@
         <v>1890</v>
       </c>
       <c r="B131">
-        <v>0.7776054210042015</v>
+        <v>0.7759674304522201</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4020,7 +4017,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4034,7 +4031,7 @@
         <v>1900</v>
       </c>
       <c r="B132">
-        <v>0.8436659936641204</v>
+        <v>0.8418193951332069</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4048,7 +4045,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4062,7 +4059,7 @@
         <v>1910</v>
       </c>
       <c r="B133">
-        <v>0.8663829247071628</v>
+        <v>0.8775059497628813</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4076,7 +4073,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4090,7 +4087,7 @@
         <v>1920</v>
       </c>
       <c r="B134">
-        <v>0.8690487306173585</v>
+        <v>0.8494731981197068</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -4104,7 +4101,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4118,7 +4115,7 @@
         <v>1930</v>
       </c>
       <c r="B135">
-        <v>0.8754906007823434</v>
+        <v>0.850999883154272</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4132,7 +4129,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4146,7 +4143,7 @@
         <v>1940</v>
       </c>
       <c r="B136">
-        <v>0.8912005300164543</v>
+        <v>0.8675690600894744</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -4160,7 +4157,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4174,7 +4171,7 @@
         <v>1950</v>
       </c>
       <c r="B137">
-        <v>0.9058345388231114</v>
+        <v>0.8755644396439791</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -4188,7 +4185,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4202,7 +4199,7 @@
         <v>1960</v>
       </c>
       <c r="B138">
-        <v>0.8950215133854781</v>
+        <v>0.8831264458279316</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -4216,7 +4213,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4230,7 +4227,7 @@
         <v>1970</v>
       </c>
       <c r="B139">
-        <v>0.9067983499520423</v>
+        <v>0.8839363257408782</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -4244,7 +4241,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4258,7 +4255,7 @@
         <v>1980</v>
       </c>
       <c r="B140">
-        <v>0.8995953591783092</v>
+        <v>0.9003652863920215</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -4272,7 +4269,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4286,7 +4283,7 @@
         <v>1990</v>
       </c>
       <c r="B141">
-        <v>0.8951672701262621</v>
+        <v>0.9272440403722584</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -4300,7 +4297,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>job</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4311,14 +4308,14 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>1820</v>
+        <v>1800</v>
       </c>
       <c r="B142">
-        <v>-0.5545055450620223</v>
+        <v>0.8701622078393978</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4328,25 +4325,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="B143">
-        <v>0.4942465564592298</v>
+        <v>0.8194183550260833</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4356,25 +4353,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="B144">
-        <v>0.3041416717344806</v>
+        <v>0.7989330137200115</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4384,25 +4381,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="B145">
-        <v>0.3067780440458955</v>
+        <v>0.691179073898857</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4412,25 +4409,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="B146">
-        <v>0.3428107455733259</v>
+        <v>0.8295076555346387</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4440,25 +4437,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="B147">
-        <v>0.3693959617979308</v>
+        <v>0.6596048200511303</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4468,25 +4465,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="B148">
-        <v>0.2024482020782942</v>
+        <v>0.604432485430714</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4496,25 +4493,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="B149">
-        <v>0.2977310291569898</v>
+        <v>0.6940022467468193</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4524,25 +4521,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="B150">
-        <v>0.2048898366748287</v>
+        <v>0.7069985447025159</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4552,25 +4549,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="B151">
-        <v>0.5594166948449172</v>
+        <v>0.7112335840606518</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4580,25 +4577,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="B152">
-        <v>0.5571861828710838</v>
+        <v>0.7390892143837455</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4608,25 +4605,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="B153">
-        <v>0.4507095774433906</v>
+        <v>0.7921069205885849</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4636,25 +4633,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="B154">
-        <v>0.5924398808689531</v>
+        <v>0.8580952564083391</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4664,25 +4661,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="B155">
-        <v>0.6752322723137528</v>
+        <v>0.8427195110559471</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4692,25 +4689,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1960</v>
+        <v>1940</v>
       </c>
       <c r="B156">
-        <v>0.6012015735194716</v>
+        <v>0.7926433978341242</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4720,25 +4717,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="B157">
-        <v>0.6717925765612887</v>
+        <v>0.8595276686862532</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4748,25 +4745,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="B158">
-        <v>0.6851925035616032</v>
+        <v>0.8524076499966704</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4776,25 +4773,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="B159">
-        <v>0.6942313439859255</v>
+        <v>0.926015092112546</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4804,25 +4801,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="B160">
-        <v>0.7525918642332891</v>
+        <v>0.9387198926553798</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4832,25 +4829,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B161">
-        <v>0.5805283173191121</v>
+        <v>0.9213866562654668</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4860,581 +4857,581 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>chore</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1820</v>
+        <v>1800</v>
       </c>
       <c r="B162">
-        <v>-0.6270158701016707</v>
+        <v>0.7935204340140363</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="B163">
-        <v>-0.005685153199202563</v>
+        <v>0.7617412219324035</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="B164">
-        <v>0.2118993048475894</v>
+        <v>0.7607974028317466</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="B165">
-        <v>-0.06282526071810673</v>
+        <v>0.7727494818286386</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="B166">
-        <v>0.377140811365542</v>
+        <v>0.7953869289576759</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="B167">
-        <v>-0.002812331974093737</v>
+        <v>0.7455644859395024</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="B168">
-        <v>0.4872676731750138</v>
+        <v>0.7836916089338575</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="B169">
-        <v>0.5111579738568486</v>
+        <v>0.7701490434447829</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="B170">
-        <v>0.4500657151222435</v>
+        <v>0.8114503343484192</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="B171">
-        <v>0.5048993159853314</v>
+        <v>0.7776054210042015</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="B172">
-        <v>0.5397125436366986</v>
+        <v>0.8436659936641204</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="B173">
-        <v>0.5945751479932915</v>
+        <v>0.8663829247071628</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="B174">
-        <v>0.5885747564551488</v>
+        <v>0.8690487306173585</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="B175">
-        <v>0.6474528962352365</v>
+        <v>0.8754906007823434</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>1960</v>
+        <v>1940</v>
       </c>
       <c r="B176">
-        <v>0.5240582902505818</v>
+        <v>0.8912005300164543</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="B177">
-        <v>0.58400770170812</v>
+        <v>0.9058345388231114</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="B178">
-        <v>0.6763061916291919</v>
+        <v>0.8950215133854781</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="B179">
-        <v>0.6507539627820222</v>
+        <v>0.9067983499520423</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="B180">
-        <v>0.6308608098835126</v>
+        <v>0.8995953591783092</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B181">
-        <v>0.6221948247718618</v>
+        <v>0.8951672701262621</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B182">
-        <v>-0.1433551875300191</v>
+        <v>-0.5545055450620223</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5453,16 +5450,16 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B183">
-        <v>0.03945634216013137</v>
+        <v>0.4942465564592298</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5481,16 +5478,16 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B184">
-        <v>0.04506312326970232</v>
+        <v>0.3041416717344806</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5509,16 +5506,16 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B185">
-        <v>-0.06537609907234228</v>
+        <v>0.3067780440458955</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -5537,16 +5534,16 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B186">
-        <v>-0.168203113270568</v>
+        <v>0.3428107455733259</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -5565,16 +5562,16 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B187">
-        <v>-0.1083602822695541</v>
+        <v>0.3693959617979308</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -5593,16 +5590,16 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B188">
-        <v>-0.1628964863260865</v>
+        <v>0.2024482020782942</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5621,16 +5618,16 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B189">
-        <v>-0.2155408609313484</v>
+        <v>0.2977310291569898</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5649,16 +5646,16 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B190">
-        <v>-0.2573501882286215</v>
+        <v>0.2048898366748287</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -5677,16 +5674,16 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B191">
-        <v>-0.2539468254924214</v>
+        <v>0.5594166948449172</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5705,16 +5702,16 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B192">
-        <v>-0.2298125126187472</v>
+        <v>0.5571861828710838</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5733,16 +5730,16 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B193">
-        <v>-0.1465882322681237</v>
+        <v>0.4507095774433906</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5761,16 +5758,16 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B194">
-        <v>-0.1113527746862468</v>
+        <v>0.5924398808689531</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5789,16 +5786,16 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B195">
-        <v>-0.1004072681350849</v>
+        <v>0.6752322723137528</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5817,16 +5814,16 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B196">
-        <v>0.0598169625747922</v>
+        <v>0.6012015735194716</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -5845,16 +5842,16 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B197">
-        <v>0.0004823407830683084</v>
+        <v>0.6717925765612887</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5873,16 +5870,16 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B198">
-        <v>0.197985506073703</v>
+        <v>0.6851925035616032</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5901,16 +5898,16 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B199">
-        <v>0.2179954340398767</v>
+        <v>0.6942313439859255</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5929,16 +5926,16 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B200">
-        <v>0.2438182811770349</v>
+        <v>0.7525918642332891</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5957,16 +5954,16 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B201">
-        <v>0.04672730147632682</v>
+        <v>0.5805283173191121</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5985,16 +5982,16 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B202">
-        <v>-0.174412474794706</v>
+        <v>-0.6270158701016707</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -6013,16 +6010,16 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B203">
-        <v>0.01423925667006829</v>
+        <v>-0.005685153199202563</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -6041,16 +6038,16 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B204">
-        <v>0.01570771231215533</v>
+        <v>0.2118993048475894</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -6069,16 +6066,16 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B205">
-        <v>-0.0891944273746485</v>
+        <v>-0.06282526071810673</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -6097,16 +6094,16 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B206">
-        <v>-0.2270850538100328</v>
+        <v>0.377140811365542</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -6125,16 +6122,16 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B207">
-        <v>-0.2756924627139015</v>
+        <v>-0.002812331974093737</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -6153,16 +6150,16 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B208">
-        <v>-0.2502505959310436</v>
+        <v>0.4872676731750138</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -6181,16 +6178,16 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B209">
-        <v>-0.2974012266713241</v>
+        <v>0.5111579738568486</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -6209,16 +6206,16 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B210">
-        <v>-0.3606907036083426</v>
+        <v>0.4500657151222435</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -6237,16 +6234,16 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B211">
-        <v>-0.4125732970864013</v>
+        <v>0.5048993159853314</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -6265,16 +6262,16 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B212">
-        <v>-0.3055454455380516</v>
+        <v>0.5397125436366986</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -6293,16 +6290,16 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B213">
-        <v>-0.2282564012959149</v>
+        <v>0.5945751479932915</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -6321,16 +6318,16 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B214">
-        <v>-0.1610690048556035</v>
+        <v>0.5885747564551488</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -6349,16 +6346,16 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B215">
-        <v>-0.2200333363877894</v>
+        <v>0.6474528962352365</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -6377,16 +6374,16 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B216">
-        <v>-0.02176832820256282</v>
+        <v>0.5240582902505818</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -6405,16 +6402,16 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B217">
-        <v>-0.05098093574260674</v>
+        <v>0.58400770170812</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -6433,16 +6430,16 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B218">
-        <v>0.0832708176273866</v>
+        <v>0.6763061916291919</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -6461,16 +6458,16 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B219">
-        <v>0.1182129890926227</v>
+        <v>0.6507539627820222</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -6489,16 +6486,16 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B220">
-        <v>0.2245354051887388</v>
+        <v>0.6308608098835126</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -6517,16 +6514,16 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B221">
-        <v>0.01707581176732545</v>
+        <v>0.6221948247718618</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -6545,20 +6542,20 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>1820</v>
+        <v>1800</v>
       </c>
       <c r="B222">
-        <v>0.7622319807216195</v>
+        <v>-0.1433551875300191</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6573,20 +6570,20 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="B223">
-        <v>0.5183823733500884</v>
+        <v>0.03945634216013137</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6601,20 +6598,20 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="B224">
-        <v>0.6604560103389518</v>
+        <v>0.04506312326970232</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6629,20 +6626,20 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="B225">
-        <v>0.5940544319925488</v>
+        <v>-0.06537609907234228</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6657,20 +6654,20 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="B226">
-        <v>0.6368320710933217</v>
+        <v>-0.168203113270568</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6685,20 +6682,20 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="B227">
-        <v>0.665021591354493</v>
+        <v>-0.1083602822695541</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6713,20 +6710,20 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="B228">
-        <v>0.6705379613615767</v>
+        <v>-0.1628964863260865</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6741,20 +6738,20 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="B229">
-        <v>0.7596321104489259</v>
+        <v>-0.2155408609313484</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6769,20 +6766,20 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="B230">
-        <v>0.6725894466352335</v>
+        <v>-0.2573501882286215</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6797,20 +6794,20 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="B231">
-        <v>0.8437228820591777</v>
+        <v>-0.2539468254924214</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6825,20 +6822,20 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="B232">
-        <v>0.9176070031290924</v>
+        <v>-0.2298125126187472</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6853,20 +6850,20 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="B233">
-        <v>0.8981021862403008</v>
+        <v>-0.1465882322681237</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6881,20 +6878,20 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="B234">
-        <v>0.9292607065638071</v>
+        <v>-0.1113527746862468</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6909,20 +6906,20 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="B235">
-        <v>0.9371413015170407</v>
+        <v>-0.1004072681350849</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6937,20 +6934,20 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>1960</v>
+        <v>1940</v>
       </c>
       <c r="B236">
-        <v>0.9101348625270533</v>
+        <v>0.0598169625747922</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6965,20 +6962,20 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="B237">
-        <v>0.9344243787251612</v>
+        <v>0.0004823407830683084</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6993,20 +6990,20 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="B238">
-        <v>0.9454345898796156</v>
+        <v>0.197985506073703</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7021,20 +7018,20 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="B239">
-        <v>0.957682765145356</v>
+        <v>0.2179954340398767</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7049,20 +7046,20 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="B240">
-        <v>0.954840739071271</v>
+        <v>0.2438182811770349</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7077,20 +7074,20 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B241">
-        <v>0.9629704693540194</v>
+        <v>0.04672730147632682</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7105,567 +7102,567 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>1820</v>
+        <v>1800</v>
       </c>
       <c r="B242">
-        <v>0.6906678403836637</v>
+        <v>-0.174412474794706</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="B243">
-        <v>0.5526314621546912</v>
+        <v>0.01423925667006829</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="B244">
-        <v>0.7384462362669966</v>
+        <v>0.01570771231215533</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="B245">
-        <v>0.514132875341718</v>
+        <v>-0.0891944273746485</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="B246">
-        <v>0.5169928889056645</v>
+        <v>-0.2270850538100328</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="B247">
-        <v>0.3350726240651346</v>
+        <v>-0.2756924627139015</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="B248">
-        <v>0.5906730424427236</v>
+        <v>-0.2502505959310436</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="B249">
-        <v>0.6835964103279167</v>
+        <v>-0.2974012266713241</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="B250">
-        <v>0.6274449492549806</v>
+        <v>-0.3606907036083426</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="B251">
-        <v>0.7317359754136176</v>
+        <v>-0.4125732970864013</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="B252">
-        <v>0.8432157942446658</v>
+        <v>-0.3055454455380516</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="B253">
-        <v>0.8189349994212861</v>
+        <v>-0.2282564012959149</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="B254">
-        <v>0.887002223776028</v>
+        <v>-0.1610690048556035</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="B255">
-        <v>0.9003746271773719</v>
+        <v>-0.2200333363877894</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>1960</v>
+        <v>1940</v>
       </c>
       <c r="B256">
-        <v>0.8785699730265185</v>
+        <v>-0.02176832820256282</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="B257">
-        <v>0.8743505006203528</v>
+        <v>-0.05098093574260674</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="B258">
-        <v>0.902074755557033</v>
+        <v>0.0832708176273866</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="B259">
-        <v>0.9111313268624559</v>
+        <v>0.1182129890926227</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="B260">
-        <v>0.8933300654742965</v>
+        <v>0.2245354051887388</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B261">
-        <v>0.9207458493992448</v>
+        <v>0.01707581176732545</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
@@ -7674,7 +7671,7 @@
         <v>1820</v>
       </c>
       <c r="B262">
-        <v>-0.6265148468984472</v>
+        <v>0.7622319807216195</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -7688,7 +7685,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -7702,7 +7699,7 @@
         <v>1830</v>
       </c>
       <c r="B263">
-        <v>0.576613050042116</v>
+        <v>0.5183823733500884</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -7716,7 +7713,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -7730,7 +7727,7 @@
         <v>1840</v>
       </c>
       <c r="B264">
-        <v>0.8026047577991531</v>
+        <v>0.6604560103389518</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -7744,7 +7741,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -7758,7 +7755,7 @@
         <v>1850</v>
       </c>
       <c r="B265">
-        <v>0.7043783488307597</v>
+        <v>0.5940544319925488</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -7772,7 +7769,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -7786,7 +7783,7 @@
         <v>1860</v>
       </c>
       <c r="B266">
-        <v>0.8100339624126449</v>
+        <v>0.6368320710933217</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -7800,7 +7797,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -7814,7 +7811,7 @@
         <v>1870</v>
       </c>
       <c r="B267">
-        <v>0.7145045067553836</v>
+        <v>0.665021591354493</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -7828,7 +7825,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -7842,7 +7839,7 @@
         <v>1880</v>
       </c>
       <c r="B268">
-        <v>0.793622711650438</v>
+        <v>0.6705379613615767</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -7856,7 +7853,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -7870,7 +7867,7 @@
         <v>1890</v>
       </c>
       <c r="B269">
-        <v>0.8452866006352261</v>
+        <v>0.7596321104489259</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -7884,7 +7881,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -7898,7 +7895,7 @@
         <v>1900</v>
       </c>
       <c r="B270">
-        <v>0.8077668418261341</v>
+        <v>0.6725894466352335</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -7912,7 +7909,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -7926,7 +7923,7 @@
         <v>1910</v>
       </c>
       <c r="B271">
-        <v>0.9009265627065309</v>
+        <v>0.8437228820591777</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -7940,7 +7937,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -7954,7 +7951,7 @@
         <v>1920</v>
       </c>
       <c r="B272">
-        <v>0.9515412554874532</v>
+        <v>0.9176070031290924</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -7968,7 +7965,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -7982,7 +7979,7 @@
         <v>1930</v>
       </c>
       <c r="B273">
-        <v>0.9217608961092054</v>
+        <v>0.8981021862403008</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -7996,7 +7993,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -8010,7 +8007,7 @@
         <v>1940</v>
       </c>
       <c r="B274">
-        <v>0.9595167783996192</v>
+        <v>0.9292607065638071</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -8024,7 +8021,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -8038,7 +8035,7 @@
         <v>1950</v>
       </c>
       <c r="B275">
-        <v>0.9608149336654671</v>
+        <v>0.9371413015170407</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -8052,7 +8049,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -8066,7 +8063,7 @@
         <v>1960</v>
       </c>
       <c r="B276">
-        <v>0.9274979601182388</v>
+        <v>0.9101348625270533</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -8080,7 +8077,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -8094,7 +8091,7 @@
         <v>1970</v>
       </c>
       <c r="B277">
-        <v>0.929119981870822</v>
+        <v>0.9344243787251612</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -8108,7 +8105,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -8122,7 +8119,7 @@
         <v>1980</v>
       </c>
       <c r="B278">
-        <v>0.9653322622281154</v>
+        <v>0.9454345898796156</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -8136,7 +8133,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -8150,7 +8147,7 @@
         <v>1990</v>
       </c>
       <c r="B279">
-        <v>0.9670029976359532</v>
+        <v>0.957682765145356</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -8164,7 +8161,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -8178,7 +8175,7 @@
         <v>2000</v>
       </c>
       <c r="B280">
-        <v>0.947580062304358</v>
+        <v>0.954840739071271</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -8192,7 +8189,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -8206,24 +8203,1144 @@
         <v>2010</v>
       </c>
       <c r="B281">
+        <v>0.9629704693540194</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>1820</v>
+      </c>
+      <c r="B282">
+        <v>0.6906678403836637</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>1830</v>
+      </c>
+      <c r="B283">
+        <v>0.5526314621546912</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>1840</v>
+      </c>
+      <c r="B284">
+        <v>0.7384462362669966</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>1850</v>
+      </c>
+      <c r="B285">
+        <v>0.514132875341718</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>1860</v>
+      </c>
+      <c r="B286">
+        <v>0.5169928889056645</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>1870</v>
+      </c>
+      <c r="B287">
+        <v>0.3350726240651346</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>1880</v>
+      </c>
+      <c r="B288">
+        <v>0.5906730424427236</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>1890</v>
+      </c>
+      <c r="B289">
+        <v>0.6835964103279167</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>1900</v>
+      </c>
+      <c r="B290">
+        <v>0.6274449492549806</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>1910</v>
+      </c>
+      <c r="B291">
+        <v>0.7317359754136176</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>1920</v>
+      </c>
+      <c r="B292">
+        <v>0.8432157942446658</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>1930</v>
+      </c>
+      <c r="B293">
+        <v>0.8189349994212861</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>1940</v>
+      </c>
+      <c r="B294">
+        <v>0.887002223776028</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>1950</v>
+      </c>
+      <c r="B295">
+        <v>0.9003746271773719</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>1960</v>
+      </c>
+      <c r="B296">
+        <v>0.8785699730265185</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>1970</v>
+      </c>
+      <c r="B297">
+        <v>0.8743505006203528</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>1980</v>
+      </c>
+      <c r="B298">
+        <v>0.902074755557033</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>1990</v>
+      </c>
+      <c r="B299">
+        <v>0.9111313268624559</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>2000</v>
+      </c>
+      <c r="B300">
+        <v>0.8933300654742965</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>2010</v>
+      </c>
+      <c r="B301">
+        <v>0.9207458493992448</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>1820</v>
+      </c>
+      <c r="B302">
+        <v>-0.6265148468984472</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>1830</v>
+      </c>
+      <c r="B303">
+        <v>0.576613050042116</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>1840</v>
+      </c>
+      <c r="B304">
+        <v>0.8026047577991531</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>1850</v>
+      </c>
+      <c r="B305">
+        <v>0.7043783488307597</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>1860</v>
+      </c>
+      <c r="B306">
+        <v>0.8100339624126449</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>1870</v>
+      </c>
+      <c r="B307">
+        <v>0.7145045067553836</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>1880</v>
+      </c>
+      <c r="B308">
+        <v>0.793622711650438</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>1890</v>
+      </c>
+      <c r="B309">
+        <v>0.8452866006352261</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>1900</v>
+      </c>
+      <c r="B310">
+        <v>0.8077668418261341</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>1910</v>
+      </c>
+      <c r="B311">
+        <v>0.9009265627065309</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>1920</v>
+      </c>
+      <c r="B312">
+        <v>0.9515412554874532</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>1930</v>
+      </c>
+      <c r="B313">
+        <v>0.9217608961092054</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>1940</v>
+      </c>
+      <c r="B314">
+        <v>0.9595167783996192</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>1950</v>
+      </c>
+      <c r="B315">
+        <v>0.9608149336654671</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>1960</v>
+      </c>
+      <c r="B316">
+        <v>0.9274979601182388</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>1970</v>
+      </c>
+      <c r="B317">
+        <v>0.929119981870822</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>1980</v>
+      </c>
+      <c r="B318">
+        <v>0.9653322622281154</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>1990</v>
+      </c>
+      <c r="B319">
+        <v>0.9670029976359532</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>2000</v>
+      </c>
+      <c r="B320">
+        <v>0.947580062304358</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>2010</v>
+      </c>
+      <c r="B321">
         <v>0.9696230204820439</v>
       </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
         <is>
           <t>agentic</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
+      <c r="F321" t="inlineStr">
         <is>
           <t>coha</t>
         </is>

--- a/overall_results.xlsx
+++ b/overall_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,7 +391,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1820</v>
+        <v>1800</v>
+      </c>
+      <c r="B2">
+        <v>0.7608426826670345</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -405,21 +408,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="B3">
-        <v>0.3988897329785302</v>
+        <v>0.7966442985489749</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -433,21 +436,21 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="B4">
-        <v>0.6562042603080587</v>
+        <v>0.7896831610555303</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -461,21 +464,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="B5">
-        <v>0.6836505178304066</v>
+        <v>0.7644529814122928</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -489,21 +492,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="B6">
-        <v>0.6877954629479958</v>
+        <v>0.7750870844832742</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -517,21 +520,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="B7">
-        <v>0.7099731338328849</v>
+        <v>0.7651039093444436</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -545,21 +548,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="B8">
-        <v>0.5919218101478206</v>
+        <v>0.8071249350937377</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -573,21 +576,21 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="B9">
-        <v>0.6685738105042326</v>
+        <v>0.8114074932428972</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -601,21 +604,21 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="B10">
-        <v>0.643295295386615</v>
+        <v>0.8431183909869063</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -629,21 +632,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="B11">
-        <v>0.7696505536337467</v>
+        <v>0.833993111378289</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -657,21 +660,21 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="B12">
-        <v>0.8725236299720505</v>
+        <v>0.8811295712577345</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -685,21 +688,21 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="B13">
-        <v>0.830324456063815</v>
+        <v>0.9010926282196993</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -713,21 +716,21 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="B14">
-        <v>0.8898031307349038</v>
+        <v>0.8905408087672476</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -741,21 +744,21 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="B15">
-        <v>0.9045828712959143</v>
+        <v>0.8967956465520671</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -769,21 +772,21 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1960</v>
+        <v>1940</v>
       </c>
       <c r="B16">
-        <v>0.8828480724957739</v>
+        <v>0.9144132220058684</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -797,21 +800,21 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="B17">
-        <v>0.8454384331043132</v>
+        <v>0.9225972050204796</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -825,21 +828,21 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="B18">
-        <v>0.8918350074449456</v>
+        <v>0.9146059482512264</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -853,21 +856,21 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="B19">
-        <v>0.8672343020391332</v>
+        <v>0.9262759968197449</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -881,21 +884,21 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="B20">
-        <v>0.9285655239881473</v>
+        <v>0.9288814616198942</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -909,21 +912,21 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B21">
-        <v>0.9350873189478498</v>
+        <v>0.9324082188317472</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -937,21 +940,21 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B22">
-        <v>0.7608426826670345</v>
+        <v>-0.05807033164434925</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -965,21 +968,21 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B23">
-        <v>0.7966442985489749</v>
+        <v>0.4901586910593063</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -993,21 +996,21 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B24">
-        <v>0.7896831610555303</v>
+        <v>0.6584366021206138</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1021,21 +1024,21 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B25">
-        <v>0.7644529814122928</v>
+        <v>0.6159716513094075</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1049,21 +1052,21 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B26">
-        <v>0.7750870844832742</v>
+        <v>0.6761905177280739</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1077,21 +1080,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B27">
-        <v>0.7651039093444436</v>
+        <v>0.709043910722309</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1105,21 +1108,21 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B28">
-        <v>0.8071249350937377</v>
+        <v>0.7369812661742955</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1133,21 +1136,21 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B29">
-        <v>0.8114074932428972</v>
+        <v>0.7542641647138938</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1161,21 +1164,21 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B30">
-        <v>0.8431183909869063</v>
+        <v>0.7118853125963011</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1189,21 +1192,21 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B31">
-        <v>0.833993111378289</v>
+        <v>0.8407230059818517</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1217,21 +1220,21 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B32">
-        <v>0.8811295712577345</v>
+        <v>0.8957642917755252</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1245,21 +1248,21 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B33">
-        <v>0.9010926282196993</v>
+        <v>0.8675118931048572</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1273,21 +1276,21 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B34">
-        <v>0.8905408087672476</v>
+        <v>0.9125844148620592</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1301,21 +1304,21 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B35">
-        <v>0.8967956465520671</v>
+        <v>0.9295092797235537</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1329,21 +1332,21 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B36">
-        <v>0.9144132220058684</v>
+        <v>0.9099775955587934</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1357,21 +1360,21 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B37">
-        <v>0.9225972050204796</v>
+        <v>0.9225011360898194</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1385,21 +1388,21 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B38">
-        <v>0.9146059482512264</v>
+        <v>0.9318718945592638</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1413,21 +1416,21 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B39">
-        <v>0.9262759968197449</v>
+        <v>0.9406540173235107</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1441,21 +1444,21 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B40">
-        <v>0.9288814616198942</v>
+        <v>0.9335209996597322</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1469,21 +1472,21 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B41">
-        <v>0.9324082188317472</v>
+        <v>0.9223816590435469</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1497,12 +1500,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>agentic</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1514,7 @@
         <v>1820</v>
       </c>
       <c r="B42">
-        <v>-0.05807033164434925</v>
+        <v>-0.5872218883677182</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1525,7 +1528,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1539,7 +1542,7 @@
         <v>1830</v>
       </c>
       <c r="B43">
-        <v>0.4901586910593063</v>
+        <v>0.6027176768606833</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1553,7 +1556,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1567,7 +1570,7 @@
         <v>1840</v>
       </c>
       <c r="B44">
-        <v>0.6584366021206138</v>
+        <v>0.6447359483553137</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1581,7 +1584,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1595,7 +1598,7 @@
         <v>1850</v>
       </c>
       <c r="B45">
-        <v>0.6159716513094075</v>
+        <v>0.6552649231518565</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1609,7 +1612,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1623,7 +1626,7 @@
         <v>1860</v>
       </c>
       <c r="B46">
-        <v>0.6761905177280739</v>
+        <v>0.6353406788599211</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1637,7 +1640,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1651,7 +1654,7 @@
         <v>1870</v>
       </c>
       <c r="B47">
-        <v>0.709043910722309</v>
+        <v>0.7591152166322004</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1665,7 +1668,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1679,7 +1682,7 @@
         <v>1880</v>
       </c>
       <c r="B48">
-        <v>0.7369812661742955</v>
+        <v>0.7507673606592689</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1693,7 +1696,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1707,7 +1710,7 @@
         <v>1890</v>
       </c>
       <c r="B49">
-        <v>0.7542641647138938</v>
+        <v>0.8114429335343581</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1721,7 +1724,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -1735,7 +1738,7 @@
         <v>1900</v>
       </c>
       <c r="B50">
-        <v>0.7118853125963011</v>
+        <v>0.7196740864778605</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1749,7 +1752,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1763,7 +1766,7 @@
         <v>1910</v>
       </c>
       <c r="B51">
-        <v>0.8407230059818517</v>
+        <v>0.8758227159066858</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1777,7 +1780,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -1791,7 +1794,7 @@
         <v>1920</v>
       </c>
       <c r="B52">
-        <v>0.8957642917755252</v>
+        <v>0.846840760176095</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1805,7 +1808,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1819,7 +1822,7 @@
         <v>1930</v>
       </c>
       <c r="B53">
-        <v>0.8675118931048572</v>
+        <v>0.7639775468052367</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1833,7 +1836,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -1847,7 +1850,7 @@
         <v>1940</v>
       </c>
       <c r="B54">
-        <v>0.9125844148620592</v>
+        <v>0.8957037707567568</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1861,7 +1864,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -1875,7 +1878,7 @@
         <v>1950</v>
       </c>
       <c r="B55">
-        <v>0.9295092797235537</v>
+        <v>0.9116410758657647</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1889,7 +1892,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1903,7 +1906,7 @@
         <v>1960</v>
       </c>
       <c r="B56">
-        <v>0.9099775955587934</v>
+        <v>0.9190026757684122</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1917,7 +1920,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -1931,7 +1934,7 @@
         <v>1970</v>
       </c>
       <c r="B57">
-        <v>0.9225011360898194</v>
+        <v>0.9257255579931348</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1945,7 +1948,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -1959,7 +1962,7 @@
         <v>1980</v>
       </c>
       <c r="B58">
-        <v>0.9318718945592638</v>
+        <v>0.8953596900120414</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1973,7 +1976,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -1987,7 +1990,7 @@
         <v>1990</v>
       </c>
       <c r="B59">
-        <v>0.9406540173235107</v>
+        <v>0.8980938222120606</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2001,7 +2004,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2015,7 +2018,7 @@
         <v>2000</v>
       </c>
       <c r="B60">
-        <v>0.9335209996597322</v>
+        <v>0.9365343732011795</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2029,7 +2032,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2043,7 +2046,7 @@
         <v>2010</v>
       </c>
       <c r="B61">
-        <v>0.9223816590435469</v>
+        <v>0.8944044038190643</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2057,7 +2060,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>noun</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2071,11 +2074,11 @@
         <v>1820</v>
       </c>
       <c r="B62">
-        <v>-0.5872218883677182</v>
+        <v>0.5666161994367269</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2099,11 +2102,11 @@
         <v>1830</v>
       </c>
       <c r="B63">
-        <v>0.6027176768606833</v>
+        <v>0.4309299030826184</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2127,11 +2130,11 @@
         <v>1840</v>
       </c>
       <c r="B64">
-        <v>0.6447359483553137</v>
+        <v>0.1850313863970557</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2155,11 +2158,11 @@
         <v>1850</v>
       </c>
       <c r="B65">
-        <v>0.6552649231518565</v>
+        <v>0.2648075056560554</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2183,11 +2186,11 @@
         <v>1860</v>
       </c>
       <c r="B66">
-        <v>0.6353406788599211</v>
+        <v>0.3305753484490074</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2211,11 +2214,11 @@
         <v>1870</v>
       </c>
       <c r="B67">
-        <v>0.7591152166322004</v>
+        <v>0.4125082391474045</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2239,11 +2242,11 @@
         <v>1880</v>
       </c>
       <c r="B68">
-        <v>0.7507673606592689</v>
+        <v>0.2793425072668656</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2267,11 +2270,11 @@
         <v>1890</v>
       </c>
       <c r="B69">
-        <v>0.8114429335343581</v>
+        <v>0.3600383615420568</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2295,11 +2298,11 @@
         <v>1900</v>
       </c>
       <c r="B70">
-        <v>0.7196740864778605</v>
+        <v>0.315820841870543</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2323,11 +2326,11 @@
         <v>1910</v>
       </c>
       <c r="B71">
-        <v>0.8758227159066858</v>
+        <v>0.5707101421797228</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2351,11 +2354,11 @@
         <v>1920</v>
       </c>
       <c r="B72">
-        <v>0.846840760176095</v>
+        <v>0.4633637551988769</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2379,11 +2382,11 @@
         <v>1930</v>
       </c>
       <c r="B73">
-        <v>0.7639775468052367</v>
+        <v>0.328295681108483</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2407,11 +2410,11 @@
         <v>1940</v>
       </c>
       <c r="B74">
-        <v>0.8957037707567568</v>
+        <v>0.610728923057454</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2435,11 +2438,11 @@
         <v>1950</v>
       </c>
       <c r="B75">
-        <v>0.9116410758657647</v>
+        <v>0.5777283520104863</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2463,11 +2466,11 @@
         <v>1960</v>
       </c>
       <c r="B76">
-        <v>0.9190026757684122</v>
+        <v>0.5585067637529638</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2491,11 +2494,11 @@
         <v>1970</v>
       </c>
       <c r="B77">
-        <v>0.9257255579931348</v>
+        <v>0.6213059234030045</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2519,11 +2522,11 @@
         <v>1980</v>
       </c>
       <c r="B78">
-        <v>0.8953596900120414</v>
+        <v>0.6853385921339691</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2547,11 +2550,11 @@
         <v>1990</v>
       </c>
       <c r="B79">
-        <v>0.8980938222120606</v>
+        <v>0.6157834028804585</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2575,11 +2578,11 @@
         <v>2000</v>
       </c>
       <c r="B80">
-        <v>0.9365343732011795</v>
+        <v>0.7589618545594163</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2603,11 +2606,11 @@
         <v>2010</v>
       </c>
       <c r="B81">
-        <v>0.8944044038190643</v>
+        <v>0.6207805455457333</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2628,14 +2631,14 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1820</v>
+        <v>1800</v>
       </c>
       <c r="B82">
-        <v>0.5666161994367269</v>
+        <v>0.7465133787955455</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2645,25 +2648,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="B83">
-        <v>0.4309299030826184</v>
+        <v>0.7162459763027341</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2673,25 +2676,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="B84">
-        <v>0.1850313863970557</v>
+        <v>0.725254397508172</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2701,25 +2704,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="B85">
-        <v>0.2648075056560554</v>
+        <v>0.7399759768906258</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2729,25 +2732,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="B86">
-        <v>0.3305753484490074</v>
+        <v>0.7489612826124944</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2757,25 +2760,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="B87">
-        <v>0.4125082391474045</v>
+        <v>0.7321367157801644</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2785,25 +2788,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="B88">
-        <v>0.2793425072668656</v>
+        <v>0.7264995731694706</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2813,25 +2816,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="B89">
-        <v>0.3600383615420568</v>
+        <v>0.7860329339033032</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2841,25 +2844,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="B90">
-        <v>0.315820841870543</v>
+        <v>0.8091151483967732</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2869,25 +2872,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="B91">
-        <v>0.5707101421797228</v>
+        <v>0.8062662299535902</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2897,25 +2900,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="B92">
-        <v>0.4633637551988769</v>
+        <v>0.8376657220786419</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2925,25 +2928,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="B93">
-        <v>0.328295681108483</v>
+        <v>0.8863795546995588</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2953,25 +2956,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="B94">
-        <v>0.610728923057454</v>
+        <v>0.859679201007937</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2981,25 +2984,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="B95">
-        <v>0.5777283520104863</v>
+        <v>0.8695002052785591</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3009,25 +3012,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>1960</v>
+        <v>1940</v>
       </c>
       <c r="B96">
-        <v>0.5585067637529638</v>
+        <v>0.879814419390323</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3037,25 +3040,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="B97">
-        <v>0.6213059234030045</v>
+        <v>0.8975192139769586</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3065,25 +3068,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="B98">
-        <v>0.6853385921339691</v>
+        <v>0.9137856358243047</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3093,25 +3096,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="B99">
-        <v>0.6157834028804585</v>
+        <v>0.9324681882885115</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3121,25 +3124,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="B100">
-        <v>0.7589618545594163</v>
+        <v>0.9303790708642815</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3149,25 +3152,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B101">
-        <v>0.6207805455457333</v>
+        <v>0.9402086690825767</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3177,12 +3180,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3194,7 @@
         <v>1800</v>
       </c>
       <c r="B102">
-        <v>0.7465133787955455</v>
+        <v>0.7666855160713684</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3205,7 +3208,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3219,7 +3222,7 @@
         <v>1810</v>
       </c>
       <c r="B103">
-        <v>0.7162459763027341</v>
+        <v>0.7265307304389952</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3233,7 +3236,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3247,7 +3250,7 @@
         <v>1820</v>
       </c>
       <c r="B104">
-        <v>0.725254397508172</v>
+        <v>0.7257466126784664</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3261,7 +3264,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3275,7 +3278,7 @@
         <v>1830</v>
       </c>
       <c r="B105">
-        <v>0.7399759768906258</v>
+        <v>0.7313856889950443</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3289,7 +3292,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3303,7 +3306,7 @@
         <v>1840</v>
       </c>
       <c r="B106">
-        <v>0.7489612826124944</v>
+        <v>0.708582279848701</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3317,7 +3320,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3331,7 +3334,7 @@
         <v>1850</v>
       </c>
       <c r="B107">
-        <v>0.7321367157801644</v>
+        <v>0.733003001598921</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3345,7 +3348,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3359,7 +3362,7 @@
         <v>1860</v>
       </c>
       <c r="B108">
-        <v>0.7264995731694706</v>
+        <v>0.7206248333413192</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3373,7 +3376,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -3387,7 +3390,7 @@
         <v>1870</v>
       </c>
       <c r="B109">
-        <v>0.7860329339033032</v>
+        <v>0.703397544380843</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3401,7 +3404,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3415,7 +3418,7 @@
         <v>1880</v>
       </c>
       <c r="B110">
-        <v>0.8091151483967732</v>
+        <v>0.7440006861555941</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3429,7 +3432,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -3443,7 +3446,7 @@
         <v>1890</v>
       </c>
       <c r="B111">
-        <v>0.8062662299535902</v>
+        <v>0.7255724162605003</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3457,7 +3460,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3471,7 +3474,7 @@
         <v>1900</v>
       </c>
       <c r="B112">
-        <v>0.8376657220786419</v>
+        <v>0.7887371016736464</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3485,7 +3488,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -3499,7 +3502,7 @@
         <v>1910</v>
       </c>
       <c r="B113">
-        <v>0.8863795546995588</v>
+        <v>0.8458947032273948</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3513,7 +3516,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3527,7 +3530,7 @@
         <v>1920</v>
       </c>
       <c r="B114">
-        <v>0.859679201007937</v>
+        <v>0.7948572125730047</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3541,7 +3544,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3555,7 +3558,7 @@
         <v>1930</v>
       </c>
       <c r="B115">
-        <v>0.8695002052785591</v>
+        <v>0.8001819430763935</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3569,7 +3572,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3583,7 +3586,7 @@
         <v>1940</v>
       </c>
       <c r="B116">
-        <v>0.879814419390323</v>
+        <v>0.8212183018427764</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3597,7 +3600,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -3611,7 +3614,7 @@
         <v>1950</v>
       </c>
       <c r="B117">
-        <v>0.8975192139769586</v>
+        <v>0.8435716841008143</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3625,7 +3628,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -3639,7 +3642,7 @@
         <v>1960</v>
       </c>
       <c r="B118">
-        <v>0.9137856358243047</v>
+        <v>0.8626667935625024</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3653,7 +3656,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -3667,7 +3670,7 @@
         <v>1970</v>
       </c>
       <c r="B119">
-        <v>0.9324681882885115</v>
+        <v>0.8808924413882919</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3681,7 +3684,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -3695,7 +3698,7 @@
         <v>1980</v>
       </c>
       <c r="B120">
-        <v>0.9303790708642815</v>
+        <v>0.9051967116094446</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3709,7 +3712,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -3723,7 +3726,7 @@
         <v>1990</v>
       </c>
       <c r="B121">
-        <v>0.9402086690825767</v>
+        <v>0.9323096928770157</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3737,7 +3740,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -3751,7 +3754,7 @@
         <v>1800</v>
       </c>
       <c r="B122">
-        <v>0.765859545547622</v>
+        <v>0.7935204340140363</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3765,7 +3768,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -3779,7 +3782,7 @@
         <v>1810</v>
       </c>
       <c r="B123">
-        <v>0.7514238001736561</v>
+        <v>0.7617412219324035</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3793,7 +3796,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -3807,7 +3810,7 @@
         <v>1820</v>
       </c>
       <c r="B124">
-        <v>0.8091155754587052</v>
+        <v>0.7607974028317466</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3821,7 +3824,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -3835,7 +3838,7 @@
         <v>1830</v>
       </c>
       <c r="B125">
-        <v>0.8133261560234039</v>
+        <v>0.7727494818286386</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3849,7 +3852,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -3863,7 +3866,7 @@
         <v>1840</v>
       </c>
       <c r="B126">
-        <v>0.8077160576542243</v>
+        <v>0.7953869289576759</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3877,7 +3880,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -3891,7 +3894,7 @@
         <v>1850</v>
       </c>
       <c r="B127">
-        <v>0.7680580681304642</v>
+        <v>0.7455644859395024</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3905,7 +3908,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -3919,7 +3922,7 @@
         <v>1860</v>
       </c>
       <c r="B128">
-        <v>0.7909908056217033</v>
+        <v>0.7836916089338575</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3933,7 +3936,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -3947,7 +3950,7 @@
         <v>1870</v>
       </c>
       <c r="B129">
-        <v>0.7664100080876263</v>
+        <v>0.7701490434447829</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3961,7 +3964,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -3975,7 +3978,7 @@
         <v>1880</v>
       </c>
       <c r="B130">
-        <v>0.8050083262707712</v>
+        <v>0.8114503343484192</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3989,7 +3992,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4003,7 +4006,7 @@
         <v>1890</v>
       </c>
       <c r="B131">
-        <v>0.7759674304522201</v>
+        <v>0.7776054210042015</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4017,7 +4020,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4031,7 +4034,7 @@
         <v>1900</v>
       </c>
       <c r="B132">
-        <v>0.8418193951332069</v>
+        <v>0.8436659936641204</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -4045,7 +4048,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4059,7 +4062,7 @@
         <v>1910</v>
       </c>
       <c r="B133">
-        <v>0.8775059497628813</v>
+        <v>0.8663829247071628</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -4073,7 +4076,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4087,7 +4090,7 @@
         <v>1920</v>
       </c>
       <c r="B134">
-        <v>0.8494731981197068</v>
+        <v>0.8690487306173585</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -4101,7 +4104,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4115,7 +4118,7 @@
         <v>1930</v>
       </c>
       <c r="B135">
-        <v>0.850999883154272</v>
+        <v>0.8754906007823434</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -4129,7 +4132,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4143,7 +4146,7 @@
         <v>1940</v>
       </c>
       <c r="B136">
-        <v>0.8675690600894744</v>
+        <v>0.8912005300164543</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -4157,7 +4160,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4171,7 +4174,7 @@
         <v>1950</v>
       </c>
       <c r="B137">
-        <v>0.8755644396439791</v>
+        <v>0.9058345388231114</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -4185,7 +4188,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4199,7 +4202,7 @@
         <v>1960</v>
       </c>
       <c r="B138">
-        <v>0.8831264458279316</v>
+        <v>0.8950215133854781</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -4213,7 +4216,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4227,7 +4230,7 @@
         <v>1970</v>
       </c>
       <c r="B139">
-        <v>0.8839363257408782</v>
+        <v>0.9067983499520423</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -4241,7 +4244,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4255,7 +4258,7 @@
         <v>1980</v>
       </c>
       <c r="B140">
-        <v>0.9003652863920215</v>
+        <v>0.8995953591783092</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -4269,7 +4272,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4283,7 +4286,7 @@
         <v>1990</v>
       </c>
       <c r="B141">
-        <v>0.9272440403722584</v>
+        <v>0.8951672701262621</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -4297,7 +4300,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>job</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4308,14 +4311,14 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B142">
-        <v>0.8701622078393978</v>
+        <v>-0.5545055450620223</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4325,25 +4328,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B143">
-        <v>0.8194183550260833</v>
+        <v>0.4942465564592298</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4353,25 +4356,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B144">
-        <v>0.7989330137200115</v>
+        <v>0.3041416717344806</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4381,25 +4384,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B145">
-        <v>0.691179073898857</v>
+        <v>0.3067780440458955</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4409,25 +4412,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B146">
-        <v>0.8295076555346387</v>
+        <v>0.3428107455733259</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4437,25 +4440,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B147">
-        <v>0.6596048200511303</v>
+        <v>0.3693959617979308</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4465,25 +4468,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B148">
-        <v>0.604432485430714</v>
+        <v>0.2024482020782942</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4493,25 +4496,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B149">
-        <v>0.6940022467468193</v>
+        <v>0.2977310291569898</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4521,25 +4524,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B150">
-        <v>0.7069985447025159</v>
+        <v>0.2048898366748287</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4549,25 +4552,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B151">
-        <v>0.7112335840606518</v>
+        <v>0.5594166948449172</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4577,25 +4580,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B152">
-        <v>0.7390892143837455</v>
+        <v>0.5571861828710838</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4605,25 +4608,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B153">
-        <v>0.7921069205885849</v>
+        <v>0.4507095774433906</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4633,25 +4636,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B154">
-        <v>0.8580952564083391</v>
+        <v>0.5924398808689531</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4661,25 +4664,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B155">
-        <v>0.8427195110559471</v>
+        <v>0.6752322723137528</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4689,25 +4692,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B156">
-        <v>0.7926433978341242</v>
+        <v>0.6012015735194716</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4717,25 +4720,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B157">
-        <v>0.8595276686862532</v>
+        <v>0.6717925765612887</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4745,25 +4748,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B158">
-        <v>0.8524076499966704</v>
+        <v>0.6851925035616032</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4773,25 +4776,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B159">
-        <v>0.926015092112546</v>
+        <v>0.6942313439859255</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4801,25 +4804,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B160">
-        <v>0.9387198926553798</v>
+        <v>0.7525918642332891</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4829,25 +4832,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B161">
-        <v>0.9213866562654668</v>
+        <v>0.5805283173191121</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4857,581 +4860,581 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>chore</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B162">
-        <v>0.7935204340140363</v>
+        <v>-0.6270158701016707</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B163">
-        <v>0.7617412219324035</v>
+        <v>-0.005685153199202563</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B164">
-        <v>0.7607974028317466</v>
+        <v>0.2118993048475894</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B165">
-        <v>0.7727494818286386</v>
+        <v>-0.06282526071810673</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B166">
-        <v>0.7953869289576759</v>
+        <v>0.377140811365542</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B167">
-        <v>0.7455644859395024</v>
+        <v>-0.002812331974093737</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B168">
-        <v>0.7836916089338575</v>
+        <v>0.4872676731750138</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B169">
-        <v>0.7701490434447829</v>
+        <v>0.5111579738568486</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B170">
-        <v>0.8114503343484192</v>
+        <v>0.4500657151222435</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B171">
-        <v>0.7776054210042015</v>
+        <v>0.5048993159853314</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B172">
-        <v>0.8436659936641204</v>
+        <v>0.5397125436366986</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B173">
-        <v>0.8663829247071628</v>
+        <v>0.5945751479932915</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B174">
-        <v>0.8690487306173585</v>
+        <v>0.5885747564551488</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B175">
-        <v>0.8754906007823434</v>
+        <v>0.6474528962352365</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B176">
-        <v>0.8912005300164543</v>
+        <v>0.5240582902505818</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B177">
-        <v>0.9058345388231114</v>
+        <v>0.58400770170812</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B178">
-        <v>0.8950215133854781</v>
+        <v>0.6763061916291919</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B179">
-        <v>0.9067983499520423</v>
+        <v>0.6507539627820222</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B180">
-        <v>0.8995953591783092</v>
+        <v>0.6308608098835126</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B181">
-        <v>0.8951672701262621</v>
+        <v>0.6221948247718618</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>1820</v>
+        <v>1800</v>
       </c>
       <c r="B182">
-        <v>-0.5545055450620223</v>
+        <v>-0.1433551875300191</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5450,16 +5453,16 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="B183">
-        <v>0.4942465564592298</v>
+        <v>0.03945634216013137</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5478,16 +5481,16 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="B184">
-        <v>0.3041416717344806</v>
+        <v>0.04506312326970232</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5506,16 +5509,16 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="B185">
-        <v>0.3067780440458955</v>
+        <v>-0.06537609907234228</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -5534,16 +5537,16 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="B186">
-        <v>0.3428107455733259</v>
+        <v>-0.168203113270568</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -5562,16 +5565,16 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="B187">
-        <v>0.3693959617979308</v>
+        <v>-0.1083602822695541</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -5590,16 +5593,16 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="B188">
-        <v>0.2024482020782942</v>
+        <v>-0.1628964863260865</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5618,16 +5621,16 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="B189">
-        <v>0.2977310291569898</v>
+        <v>-0.2155408609313484</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5646,16 +5649,16 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="B190">
-        <v>0.2048898366748287</v>
+        <v>-0.2573501882286215</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -5674,16 +5677,16 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="B191">
-        <v>0.5594166948449172</v>
+        <v>-0.2539468254924214</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5702,16 +5705,16 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="B192">
-        <v>0.5571861828710838</v>
+        <v>-0.2298125126187472</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5730,16 +5733,16 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="B193">
-        <v>0.4507095774433906</v>
+        <v>-0.1465882322681237</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5758,16 +5761,16 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="B194">
-        <v>0.5924398808689531</v>
+        <v>-0.1113527746862468</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5786,16 +5789,16 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="B195">
-        <v>0.6752322723137528</v>
+        <v>-0.1004072681350849</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5814,16 +5817,16 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1960</v>
+        <v>1940</v>
       </c>
       <c r="B196">
-        <v>0.6012015735194716</v>
+        <v>0.0598169625747922</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -5842,16 +5845,16 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="B197">
-        <v>0.6717925765612887</v>
+        <v>0.0004823407830683084</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5870,16 +5873,16 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="B198">
-        <v>0.6851925035616032</v>
+        <v>0.197985506073703</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5898,16 +5901,16 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="B199">
-        <v>0.6942313439859255</v>
+        <v>0.2179954340398767</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5926,16 +5929,16 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="B200">
-        <v>0.7525918642332891</v>
+        <v>0.2438182811770349</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5954,16 +5957,16 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B201">
-        <v>0.5805283173191121</v>
+        <v>0.04672730147632682</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5982,16 +5985,16 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>1820</v>
+        <v>1800</v>
       </c>
       <c r="B202">
-        <v>-0.6270158701016707</v>
+        <v>-0.174412474794706</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -6010,16 +6013,16 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>1830</v>
+        <v>1810</v>
       </c>
       <c r="B203">
-        <v>-0.005685153199202563</v>
+        <v>0.01423925667006829</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -6038,16 +6041,16 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>1840</v>
+        <v>1820</v>
       </c>
       <c r="B204">
-        <v>0.2118993048475894</v>
+        <v>0.01570771231215533</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -6066,16 +6069,16 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>1850</v>
+        <v>1830</v>
       </c>
       <c r="B205">
-        <v>-0.06282526071810673</v>
+        <v>-0.0891944273746485</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -6094,16 +6097,16 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="B206">
-        <v>0.377140811365542</v>
+        <v>-0.2270850538100328</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -6122,16 +6125,16 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>1870</v>
+        <v>1850</v>
       </c>
       <c r="B207">
-        <v>-0.002812331974093737</v>
+        <v>-0.2756924627139015</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -6150,16 +6153,16 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="B208">
-        <v>0.4872676731750138</v>
+        <v>-0.2502505959310436</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -6178,16 +6181,16 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="B209">
-        <v>0.5111579738568486</v>
+        <v>-0.2974012266713241</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -6206,16 +6209,16 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>1900</v>
+        <v>1880</v>
       </c>
       <c r="B210">
-        <v>0.4500657151222435</v>
+        <v>-0.3606907036083426</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -6234,16 +6237,16 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="B211">
-        <v>0.5048993159853314</v>
+        <v>-0.4125732970864013</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -6262,16 +6265,16 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>1920</v>
+        <v>1900</v>
       </c>
       <c r="B212">
-        <v>0.5397125436366986</v>
+        <v>-0.3055454455380516</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -6290,16 +6293,16 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="B213">
-        <v>0.5945751479932915</v>
+        <v>-0.2282564012959149</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -6318,16 +6321,16 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="B214">
-        <v>0.5885747564551488</v>
+        <v>-0.1610690048556035</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -6346,16 +6349,16 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="B215">
-        <v>0.6474528962352365</v>
+        <v>-0.2200333363877894</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -6374,16 +6377,16 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>1960</v>
+        <v>1940</v>
       </c>
       <c r="B216">
-        <v>0.5240582902505818</v>
+        <v>-0.02176832820256282</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -6402,16 +6405,16 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="B217">
-        <v>0.58400770170812</v>
+        <v>-0.05098093574260674</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -6430,16 +6433,16 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="B218">
-        <v>0.6763061916291919</v>
+        <v>0.0832708176273866</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -6458,16 +6461,16 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="B219">
-        <v>0.6507539627820222</v>
+        <v>0.1182129890926227</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -6486,16 +6489,16 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="B220">
-        <v>0.6308608098835126</v>
+        <v>0.2245354051887388</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -6514,16 +6517,16 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="B221">
-        <v>0.6221948247718618</v>
+        <v>0.01707581176732545</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -6542,20 +6545,20 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>coha</t>
+          <t>engall</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B222">
-        <v>-0.1433551875300191</v>
+        <v>0.7622319807216195</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6570,20 +6573,20 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B223">
-        <v>0.03945634216013137</v>
+        <v>0.5183823733500884</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6598,20 +6601,20 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B224">
-        <v>0.04506312326970232</v>
+        <v>0.6604560103389518</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6626,20 +6629,20 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B225">
-        <v>-0.06537609907234228</v>
+        <v>0.5940544319925488</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6654,20 +6657,20 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B226">
-        <v>-0.168203113270568</v>
+        <v>0.6368320710933217</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6682,20 +6685,20 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B227">
-        <v>-0.1083602822695541</v>
+        <v>0.665021591354493</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6710,20 +6713,20 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B228">
-        <v>-0.1628964863260865</v>
+        <v>0.6705379613615767</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6738,20 +6741,20 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B229">
-        <v>-0.2155408609313484</v>
+        <v>0.7596321104489259</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6766,20 +6769,20 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B230">
-        <v>-0.2573501882286215</v>
+        <v>0.6725894466352335</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6794,20 +6797,20 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B231">
-        <v>-0.2539468254924214</v>
+        <v>0.8437228820591777</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6822,20 +6825,20 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B232">
-        <v>-0.2298125126187472</v>
+        <v>0.9176070031290924</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6850,20 +6853,20 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B233">
-        <v>-0.1465882322681237</v>
+        <v>0.8981021862403008</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6878,20 +6881,20 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B234">
-        <v>-0.1113527746862468</v>
+        <v>0.9292607065638071</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6906,20 +6909,20 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B235">
-        <v>-0.1004072681350849</v>
+        <v>0.9371413015170407</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6934,20 +6937,20 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B236">
-        <v>0.0598169625747922</v>
+        <v>0.9101348625270533</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6962,20 +6965,20 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B237">
-        <v>0.0004823407830683084</v>
+        <v>0.9344243787251612</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6990,20 +6993,20 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B238">
-        <v>0.197985506073703</v>
+        <v>0.9454345898796156</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -7018,20 +7021,20 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B239">
-        <v>0.2179954340398767</v>
+        <v>0.957682765145356</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -7046,20 +7049,20 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B240">
-        <v>0.2438182811770349</v>
+        <v>0.954840739071271</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -7074,20 +7077,20 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B241">
-        <v>0.04672730147632682</v>
+        <v>0.9629704693540194</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -7102,567 +7105,567 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B242">
-        <v>-0.174412474794706</v>
+        <v>-0.07398154930799798</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B243">
-        <v>0.01423925667006829</v>
+        <v>0.5561669471668775</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B244">
-        <v>0.01570771231215533</v>
+        <v>0.7427602278647584</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B245">
-        <v>-0.0891944273746485</v>
+        <v>0.5540294002219717</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B246">
-        <v>-0.2270850538100328</v>
+        <v>0.5642830110073191</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B247">
-        <v>-0.2756924627139015</v>
+        <v>0.4938442051447653</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B248">
-        <v>-0.2502505959310436</v>
+        <v>0.6071069148610165</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B249">
-        <v>-0.2974012266713241</v>
+        <v>0.6841599894620924</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B250">
-        <v>-0.3606907036083426</v>
+        <v>0.6018196329912593</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B251">
-        <v>-0.4125732970864013</v>
+        <v>0.7082616956867853</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B252">
-        <v>-0.3055454455380516</v>
+        <v>0.7995067438870244</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B253">
-        <v>-0.2282564012959149</v>
+        <v>0.8312878033719873</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B254">
-        <v>-0.1610690048556035</v>
+        <v>0.8701979666481441</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B255">
-        <v>-0.2200333363877894</v>
+        <v>0.861277676881929</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B256">
-        <v>-0.02176832820256282</v>
+        <v>0.8133633038186553</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B257">
-        <v>-0.05098093574260674</v>
+        <v>0.8208433895303301</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B258">
-        <v>0.0832708176273866</v>
+        <v>0.8835416641259275</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B259">
-        <v>0.1182129890926227</v>
+        <v>0.8663455950188248</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B260">
-        <v>0.2245354051887388</v>
+        <v>0.8902032060432199</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B261">
-        <v>0.01707581176732545</v>
+        <v>0.922701257145458</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>engall</t>
+          <t>coha</t>
         </is>
       </c>
     </row>
@@ -7671,7 +7674,7 @@
         <v>1820</v>
       </c>
       <c r="B262">
-        <v>0.7622319807216195</v>
+        <v>-0.6265148468984472</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -7685,7 +7688,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -7699,7 +7702,7 @@
         <v>1830</v>
       </c>
       <c r="B263">
-        <v>0.5183823733500884</v>
+        <v>0.576613050042116</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -7713,7 +7716,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -7727,7 +7730,7 @@
         <v>1840</v>
       </c>
       <c r="B264">
-        <v>0.6604560103389518</v>
+        <v>0.8026047577991531</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -7741,7 +7744,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -7755,7 +7758,7 @@
         <v>1850</v>
       </c>
       <c r="B265">
-        <v>0.5940544319925488</v>
+        <v>0.7043783488307597</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -7769,7 +7772,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -7783,7 +7786,7 @@
         <v>1860</v>
       </c>
       <c r="B266">
-        <v>0.6368320710933217</v>
+        <v>0.8100339624126449</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -7797,7 +7800,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -7811,7 +7814,7 @@
         <v>1870</v>
       </c>
       <c r="B267">
-        <v>0.665021591354493</v>
+        <v>0.7145045067553836</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -7825,7 +7828,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -7839,7 +7842,7 @@
         <v>1880</v>
       </c>
       <c r="B268">
-        <v>0.6705379613615767</v>
+        <v>0.793622711650438</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -7853,7 +7856,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -7867,7 +7870,7 @@
         <v>1890</v>
       </c>
       <c r="B269">
-        <v>0.7596321104489259</v>
+        <v>0.8452866006352261</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -7881,7 +7884,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -7895,7 +7898,7 @@
         <v>1900</v>
       </c>
       <c r="B270">
-        <v>0.6725894466352335</v>
+        <v>0.8077668418261341</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -7909,7 +7912,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -7923,7 +7926,7 @@
         <v>1910</v>
       </c>
       <c r="B271">
-        <v>0.8437228820591777</v>
+        <v>0.9009265627065309</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -7937,7 +7940,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -7951,7 +7954,7 @@
         <v>1920</v>
       </c>
       <c r="B272">
-        <v>0.9176070031290924</v>
+        <v>0.9515412554874532</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -7965,7 +7968,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -7979,7 +7982,7 @@
         <v>1930</v>
       </c>
       <c r="B273">
-        <v>0.8981021862403008</v>
+        <v>0.9217608961092054</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -7993,7 +7996,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -8007,7 +8010,7 @@
         <v>1940</v>
       </c>
       <c r="B274">
-        <v>0.9292607065638071</v>
+        <v>0.9595167783996192</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -8021,7 +8024,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -8035,7 +8038,7 @@
         <v>1950</v>
       </c>
       <c r="B275">
-        <v>0.9371413015170407</v>
+        <v>0.9608149336654671</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -8049,7 +8052,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -8063,7 +8066,7 @@
         <v>1960</v>
       </c>
       <c r="B276">
-        <v>0.9101348625270533</v>
+        <v>0.9274979601182388</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -8077,7 +8080,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -8091,7 +8094,7 @@
         <v>1970</v>
       </c>
       <c r="B277">
-        <v>0.9344243787251612</v>
+        <v>0.929119981870822</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -8105,7 +8108,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -8119,7 +8122,7 @@
         <v>1980</v>
       </c>
       <c r="B278">
-        <v>0.9454345898796156</v>
+        <v>0.9653322622281154</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -8133,7 +8136,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -8147,7 +8150,7 @@
         <v>1990</v>
       </c>
       <c r="B279">
-        <v>0.957682765145356</v>
+        <v>0.9670029976359532</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -8161,7 +8164,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -8175,7 +8178,7 @@
         <v>2000</v>
       </c>
       <c r="B280">
-        <v>0.954840739071271</v>
+        <v>0.947580062304358</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -8189,7 +8192,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -8203,7 +8206,7 @@
         <v>2010</v>
       </c>
       <c r="B281">
-        <v>0.9629704693540194</v>
+        <v>0.9696230204820439</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -8217,1130 +8220,10 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282">
-        <v>1820</v>
-      </c>
-      <c r="B282">
-        <v>0.6906678403836637</v>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283">
-        <v>1830</v>
-      </c>
-      <c r="B283">
-        <v>0.5526314621546912</v>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284">
-        <v>1840</v>
-      </c>
-      <c r="B284">
-        <v>0.7384462362669966</v>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285">
-        <v>1850</v>
-      </c>
-      <c r="B285">
-        <v>0.514132875341718</v>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286">
-        <v>1860</v>
-      </c>
-      <c r="B286">
-        <v>0.5169928889056645</v>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287">
-        <v>1870</v>
-      </c>
-      <c r="B287">
-        <v>0.3350726240651346</v>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288">
-        <v>1880</v>
-      </c>
-      <c r="B288">
-        <v>0.5906730424427236</v>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289">
-        <v>1890</v>
-      </c>
-      <c r="B289">
-        <v>0.6835964103279167</v>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290">
-        <v>1900</v>
-      </c>
-      <c r="B290">
-        <v>0.6274449492549806</v>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291">
-        <v>1910</v>
-      </c>
-      <c r="B291">
-        <v>0.7317359754136176</v>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292">
-        <v>1920</v>
-      </c>
-      <c r="B292">
-        <v>0.8432157942446658</v>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293">
-        <v>1930</v>
-      </c>
-      <c r="B293">
-        <v>0.8189349994212861</v>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294">
-        <v>1940</v>
-      </c>
-      <c r="B294">
-        <v>0.887002223776028</v>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295">
-        <v>1950</v>
-      </c>
-      <c r="B295">
-        <v>0.9003746271773719</v>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296">
-        <v>1960</v>
-      </c>
-      <c r="B296">
-        <v>0.8785699730265185</v>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297">
-        <v>1970</v>
-      </c>
-      <c r="B297">
-        <v>0.8743505006203528</v>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298">
-        <v>1980</v>
-      </c>
-      <c r="B298">
-        <v>0.902074755557033</v>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299">
-        <v>1990</v>
-      </c>
-      <c r="B299">
-        <v>0.9111313268624559</v>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300">
-        <v>2000</v>
-      </c>
-      <c r="B300">
-        <v>0.8933300654742965</v>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301">
-        <v>2010</v>
-      </c>
-      <c r="B301">
-        <v>0.9207458493992448</v>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>job</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302">
-        <v>1820</v>
-      </c>
-      <c r="B302">
-        <v>-0.6265148468984472</v>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303">
-        <v>1830</v>
-      </c>
-      <c r="B303">
-        <v>0.576613050042116</v>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304">
-        <v>1840</v>
-      </c>
-      <c r="B304">
-        <v>0.8026047577991531</v>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305">
-        <v>1850</v>
-      </c>
-      <c r="B305">
-        <v>0.7043783488307597</v>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306">
-        <v>1860</v>
-      </c>
-      <c r="B306">
-        <v>0.8100339624126449</v>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307">
-        <v>1870</v>
-      </c>
-      <c r="B307">
-        <v>0.7145045067553836</v>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F307" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308">
-        <v>1880</v>
-      </c>
-      <c r="B308">
-        <v>0.793622711650438</v>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309">
-        <v>1890</v>
-      </c>
-      <c r="B309">
-        <v>0.8452866006352261</v>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310">
-        <v>1900</v>
-      </c>
-      <c r="B310">
-        <v>0.8077668418261341</v>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311">
-        <v>1910</v>
-      </c>
-      <c r="B311">
-        <v>0.9009265627065309</v>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312">
-        <v>1920</v>
-      </c>
-      <c r="B312">
-        <v>0.9515412554874532</v>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313">
-        <v>1930</v>
-      </c>
-      <c r="B313">
-        <v>0.9217608961092054</v>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314">
-        <v>1940</v>
-      </c>
-      <c r="B314">
-        <v>0.9595167783996192</v>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315">
-        <v>1950</v>
-      </c>
-      <c r="B315">
-        <v>0.9608149336654671</v>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316">
-        <v>1960</v>
-      </c>
-      <c r="B316">
-        <v>0.9274979601182388</v>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317">
-        <v>1970</v>
-      </c>
-      <c r="B317">
-        <v>0.929119981870822</v>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318">
-        <v>1980</v>
-      </c>
-      <c r="B318">
-        <v>0.9653322622281154</v>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319">
-        <v>1990</v>
-      </c>
-      <c r="B319">
-        <v>0.9670029976359532</v>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320">
-        <v>2000</v>
-      </c>
-      <c r="B320">
-        <v>0.947580062304358</v>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321">
-        <v>2010</v>
-      </c>
-      <c r="B321">
-        <v>0.9696230204820439</v>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F321" t="inlineStr">
         <is>
           <t>coha</t>
         </is>

--- a/overall_results.xlsx
+++ b/overall_results.xlsx
@@ -951,7 +951,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B22">
         <v>-0.05807033164434925</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B23">
         <v>0.4901586910593063</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B24">
         <v>0.6584366021206138</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B25">
         <v>0.6159716513094075</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B26">
         <v>0.6761905177280739</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B27">
         <v>0.709043910722309</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B28">
         <v>0.7369812661742955</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B29">
         <v>0.7542641647138938</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B30">
         <v>0.7118853125963011</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B31">
         <v>0.8407230059818517</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B32">
         <v>0.8957642917755252</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B33">
         <v>0.8675118931048572</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B34">
         <v>0.9125844148620592</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B35">
         <v>0.9295092797235537</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B36">
         <v>0.9099775955587934</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B37">
         <v>0.9225011360898194</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B38">
         <v>0.9318718945592638</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B39">
         <v>0.9406540173235107</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B40">
         <v>0.9335209996597322</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B41">
         <v>0.9223816590435469</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B42">
         <v>-0.5872218883677182</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B43">
         <v>0.6027176768606833</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B44">
         <v>0.6447359483553137</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B45">
         <v>0.6552649231518565</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B46">
         <v>0.6353406788599211</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B47">
         <v>0.7591152166322004</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B48">
         <v>0.7507673606592689</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B49">
         <v>0.8114429335343581</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B50">
         <v>0.7196740864778605</v>
@@ -1763,7 +1763,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B51">
         <v>0.8758227159066858</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B52">
         <v>0.846840760176095</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B53">
         <v>0.7639775468052367</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B54">
         <v>0.8957037707567568</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B55">
         <v>0.9116410758657647</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B56">
         <v>0.9190026757684122</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B57">
         <v>0.9257255579931348</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B58">
         <v>0.8953596900120414</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B59">
         <v>0.8980938222120606</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B60">
         <v>0.9365343732011795</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B61">
         <v>0.8944044038190643</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B62">
         <v>0.5666161994367269</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B63">
         <v>0.4309299030826184</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B64">
         <v>0.1850313863970557</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B65">
         <v>0.2648075056560554</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B66">
         <v>0.3305753484490074</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B67">
         <v>0.4125082391474045</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B68">
         <v>0.2793425072668656</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B69">
         <v>0.3600383615420568</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B70">
         <v>0.315820841870543</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B71">
         <v>0.5707101421797228</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B72">
         <v>0.4633637551988769</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B73">
         <v>0.328295681108483</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B74">
         <v>0.610728923057454</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B75">
         <v>0.5777283520104863</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B76">
         <v>0.5585067637529638</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B77">
         <v>0.6213059234030045</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B78">
         <v>0.6853385921339691</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B79">
         <v>0.6157834028804585</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B80">
         <v>0.7589618545594163</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B81">
         <v>0.6207805455457333</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B142">
         <v>-0.5545055450620223</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B143">
         <v>0.4942465564592298</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B144">
         <v>0.3041416717344806</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B145">
         <v>0.3067780440458955</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B146">
         <v>0.3428107455733259</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B147">
         <v>0.3693959617979308</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B148">
         <v>0.2024482020782942</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B149">
         <v>0.2977310291569898</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B150">
         <v>0.2048898366748287</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B151">
         <v>0.5594166948449172</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B152">
         <v>0.5571861828710838</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B153">
         <v>0.4507095774433906</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B154">
         <v>0.5924398808689531</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B155">
         <v>0.6752322723137528</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B156">
         <v>0.6012015735194716</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B157">
         <v>0.6717925765612887</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B158">
         <v>0.6851925035616032</v>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B159">
         <v>0.6942313439859255</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B160">
         <v>0.7525918642332891</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B161">
         <v>0.5805283173191121</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B162">
         <v>-0.6270158701016707</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B163">
         <v>-0.005685153199202563</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B164">
         <v>0.2118993048475894</v>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B165">
         <v>-0.06282526071810673</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B166">
         <v>0.377140811365542</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B167">
         <v>-0.002812331974093737</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B168">
         <v>0.4872676731750138</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B169">
         <v>0.5111579738568486</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B170">
         <v>0.4500657151222435</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B171">
         <v>0.5048993159853314</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B172">
         <v>0.5397125436366986</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B173">
         <v>0.5945751479932915</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B174">
         <v>0.5885747564551488</v>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B175">
         <v>0.6474528962352365</v>
@@ -5263,7 +5263,7 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B176">
         <v>0.5240582902505818</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B177">
         <v>0.58400770170812</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B178">
         <v>0.6763061916291919</v>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B179">
         <v>0.6507539627820222</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B180">
         <v>0.6308608098835126</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B181">
         <v>0.6221948247718618</v>
@@ -6551,7 +6551,7 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B222">
         <v>0.7622319807216195</v>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B223">
         <v>0.5183823733500884</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B224">
         <v>0.6604560103389518</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B225">
         <v>0.5940544319925488</v>
@@ -6663,7 +6663,7 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B226">
         <v>0.6368320710933217</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B227">
         <v>0.665021591354493</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B228">
         <v>0.6705379613615767</v>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B229">
         <v>0.7596321104489259</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B230">
         <v>0.6725894466352335</v>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B231">
         <v>0.8437228820591777</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B232">
         <v>0.9176070031290924</v>
@@ -6859,7 +6859,7 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B233">
         <v>0.8981021862403008</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B234">
         <v>0.9292607065638071</v>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B235">
         <v>0.9371413015170407</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B236">
         <v>0.9101348625270533</v>
@@ -6971,7 +6971,7 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B237">
         <v>0.9344243787251612</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B238">
         <v>0.9454345898796156</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B239">
         <v>0.957682765145356</v>
@@ -7055,7 +7055,7 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B240">
         <v>0.954840739071271</v>
@@ -7083,7 +7083,7 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B241">
         <v>0.9629704693540194</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B242">
         <v>-0.07398154930799798</v>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B243">
         <v>0.5561669471668775</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B244">
         <v>0.7427602278647584</v>
@@ -7195,7 +7195,7 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B245">
         <v>0.5540294002219717</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B246">
         <v>0.5642830110073191</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B247">
         <v>0.4938442051447653</v>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B248">
         <v>0.6071069148610165</v>
@@ -7307,7 +7307,7 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B249">
         <v>0.6841599894620924</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B250">
         <v>0.6018196329912593</v>
@@ -7363,7 +7363,7 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B251">
         <v>0.7082616956867853</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B252">
         <v>0.7995067438870244</v>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B253">
         <v>0.8312878033719873</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B254">
         <v>0.8701979666481441</v>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B255">
         <v>0.861277676881929</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B256">
         <v>0.8133633038186553</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B257">
         <v>0.8208433895303301</v>
@@ -7559,7 +7559,7 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B258">
         <v>0.8835416641259275</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="259">
       <c r="A259">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B259">
         <v>0.8663455950188248</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B260">
         <v>0.8902032060432199</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B261">
         <v>0.922701257145458</v>
@@ -7671,7 +7671,7 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B262">
         <v>-0.6265148468984472</v>
@@ -7699,7 +7699,7 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B263">
         <v>0.576613050042116</v>
@@ -7727,7 +7727,7 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B264">
         <v>0.8026047577991531</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B265">
         <v>0.7043783488307597</v>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B266">
         <v>0.8100339624126449</v>
@@ -7811,7 +7811,7 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B267">
         <v>0.7145045067553836</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B268">
         <v>0.793622711650438</v>
@@ -7867,7 +7867,7 @@
     </row>
     <row r="269">
       <c r="A269">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B269">
         <v>0.8452866006352261</v>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B270">
         <v>0.8077668418261341</v>
@@ -7923,7 +7923,7 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B271">
         <v>0.9009265627065309</v>
@@ -7951,7 +7951,7 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B272">
         <v>0.9515412554874532</v>
@@ -7979,7 +7979,7 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B273">
         <v>0.9217608961092054</v>
@@ -8007,7 +8007,7 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B274">
         <v>0.9595167783996192</v>
@@ -8035,7 +8035,7 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B275">
         <v>0.9608149336654671</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B276">
         <v>0.9274979601182388</v>
@@ -8091,7 +8091,7 @@
     </row>
     <row r="277">
       <c r="A277">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B277">
         <v>0.929119981870822</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B278">
         <v>0.9653322622281154</v>
@@ -8147,7 +8147,7 @@
     </row>
     <row r="279">
       <c r="A279">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B279">
         <v>0.9670029976359532</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B280">
         <v>0.947580062304358</v>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="B281">
         <v>0.9696230204820439</v>

--- a/overall_results.xlsx
+++ b/overall_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:G261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,13 +388,18 @@
           <t>corpus</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>parallelize</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B2">
-        <v>0.7608426826670345</v>
+        <v>-0.8064709560915606</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -413,16 +418,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B3">
-        <v>0.7966442985489749</v>
+        <v>0.5263977187378176</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -441,16 +449,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B4">
-        <v>0.7896831610555303</v>
+        <v>0.4290310074647962</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -469,16 +480,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B5">
-        <v>0.7644529814122928</v>
+        <v>0.3022138292237684</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -497,16 +511,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B6">
-        <v>0.7750870844832742</v>
+        <v>0.3962503342154777</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -525,16 +542,19 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B7">
-        <v>0.7651039093444436</v>
+        <v>0.5286983206256008</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -553,16 +573,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B8">
-        <v>0.8071249350937377</v>
+        <v>0.7864156003838061</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -581,16 +604,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B9">
-        <v>0.8114074932428972</v>
+        <v>0.7211921043011346</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -609,16 +635,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B10">
-        <v>0.8431183909869063</v>
+        <v>0.7665139645822152</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -637,16 +666,19 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B11">
-        <v>0.833993111378289</v>
+        <v>0.804333511943268</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -665,16 +697,19 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B12">
-        <v>0.8811295712577345</v>
+        <v>0.9052352466076294</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -693,16 +728,19 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B13">
-        <v>0.9010926282196993</v>
+        <v>0.8097633682897191</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -721,16 +759,19 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B14">
-        <v>0.8905408087672476</v>
+        <v>0.9298757707708686</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -749,16 +790,19 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B15">
-        <v>0.8967956465520671</v>
+        <v>0.898663554470943</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -777,16 +821,19 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B16">
-        <v>0.9144132220058684</v>
+        <v>0.8898419834482507</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -805,16 +852,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B17">
-        <v>0.9225972050204796</v>
+        <v>0.8911845128695423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -833,16 +883,19 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B18">
-        <v>0.9146059482512264</v>
+        <v>0.9204770623767441</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -861,16 +914,19 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B19">
-        <v>0.9262759968197449</v>
+        <v>0.9244905973141598</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -889,16 +945,19 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B20">
-        <v>0.9288814616198942</v>
+        <v>0.9169032922032475</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -917,16 +976,19 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B21">
-        <v>0.9324082188317472</v>
+        <v>0.9428193183531799</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -945,16 +1007,19 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="B22">
-        <v>-0.05807033164434925</v>
+        <v>0.7576008129483868</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -968,21 +1033,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B23">
-        <v>0.4901586910593063</v>
+        <v>0.7196734164757185</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -996,21 +1064,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B24">
-        <v>0.6584366021206138</v>
+        <v>0.729616199169323</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1024,21 +1095,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B25">
-        <v>0.6159716513094075</v>
+        <v>0.7492255021722559</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1052,21 +1126,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B26">
-        <v>0.6761905177280739</v>
+        <v>0.7540398395533811</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1080,21 +1157,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B27">
-        <v>0.709043910722309</v>
+        <v>0.7241664511227257</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1108,21 +1188,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B28">
-        <v>0.7369812661742955</v>
+        <v>0.7243925132699505</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1136,21 +1219,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B29">
-        <v>0.7542641647138938</v>
+        <v>0.7795109496989352</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1164,21 +1250,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B30">
-        <v>0.7118853125963011</v>
+        <v>0.8018746046863013</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1192,21 +1281,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B31">
-        <v>0.8407230059818517</v>
+        <v>0.7978431552018176</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1220,21 +1312,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B32">
-        <v>0.8957642917755252</v>
+        <v>0.8344461666991225</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1248,21 +1343,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B33">
-        <v>0.8675118931048572</v>
+        <v>0.8796424777982984</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1276,21 +1374,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B34">
-        <v>0.9125844148620592</v>
+        <v>0.8629801124215344</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1304,21 +1405,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B35">
-        <v>0.9295092797235537</v>
+        <v>0.8667777609537624</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1332,21 +1436,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B36">
-        <v>0.9099775955587934</v>
+        <v>0.8697679940377621</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1360,21 +1467,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B37">
-        <v>0.9225011360898194</v>
+        <v>0.8993913251665874</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1388,21 +1498,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B38">
-        <v>0.9318718945592638</v>
+        <v>0.9129657129017175</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1416,21 +1529,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B39">
-        <v>0.9406540173235107</v>
+        <v>0.9294336991638787</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1444,21 +1560,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B40">
-        <v>0.9335209996597322</v>
+        <v>0.9272477817234307</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1472,21 +1591,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B41">
-        <v>0.9223816590435469</v>
+        <v>0.9353717860593624</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1500,21 +1622,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="B42">
-        <v>-0.5872218883677182</v>
+        <v>0.7815554691417418</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1528,21 +1653,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B43">
-        <v>0.6027176768606833</v>
+        <v>0.7304262501608678</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1556,21 +1684,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B44">
-        <v>0.6447359483553137</v>
+        <v>0.7144195558981778</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1584,21 +1715,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B45">
-        <v>0.6552649231518565</v>
+        <v>0.7203178462171658</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1612,21 +1746,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B46">
-        <v>0.6353406788599211</v>
+        <v>0.7065968127065626</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1640,21 +1777,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B47">
-        <v>0.7591152166322004</v>
+        <v>0.7138810946640776</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1668,21 +1808,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B48">
-        <v>0.7507673606592689</v>
+        <v>0.7096081911075048</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1696,21 +1839,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B49">
-        <v>0.8114429335343581</v>
+        <v>0.6911143001181297</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1724,21 +1870,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B50">
-        <v>0.7196740864778605</v>
+        <v>0.7336983617709815</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1752,21 +1901,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B51">
-        <v>0.8758227159066858</v>
+        <v>0.7180916975617674</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1780,21 +1932,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B52">
-        <v>0.846840760176095</v>
+        <v>0.7869040626952463</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1808,21 +1963,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B53">
-        <v>0.7639775468052367</v>
+        <v>0.8335247957241835</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1836,21 +1994,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B54">
-        <v>0.8957037707567568</v>
+        <v>0.7932059572288563</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1864,21 +2025,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B55">
-        <v>0.9116410758657647</v>
+        <v>0.7838889201582341</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1892,21 +2056,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B56">
-        <v>0.9190026757684122</v>
+        <v>0.8062792208601242</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1920,21 +2087,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B57">
-        <v>0.9257255579931348</v>
+        <v>0.8449719146133619</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1948,21 +2118,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B58">
-        <v>0.8953596900120414</v>
+        <v>0.85670258898982</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1976,21 +2149,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B59">
-        <v>0.8980938222120606</v>
+        <v>0.878433123763515</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2004,21 +2180,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B60">
-        <v>0.9365343732011795</v>
+        <v>0.8989268529297201</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2032,21 +2211,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B61">
-        <v>0.8944044038190643</v>
+        <v>0.929446402423452</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2060,25 +2242,28 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="B62">
-        <v>0.5666161994367269</v>
+        <v>0.7608426826670346</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2088,25 +2273,28 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B63">
-        <v>0.4309299030826184</v>
+        <v>0.7966442985489749</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2116,25 +2304,28 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B64">
-        <v>0.1850313863970557</v>
+        <v>0.7896831610555303</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2144,25 +2335,28 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B65">
-        <v>0.2648075056560554</v>
+        <v>0.7644529814122928</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2172,25 +2366,28 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B66">
-        <v>0.3305753484490074</v>
+        <v>0.7750870844832742</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2200,25 +2397,28 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B67">
-        <v>0.4125082391474045</v>
+        <v>0.7651039093444436</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2228,25 +2428,28 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B68">
-        <v>0.2793425072668656</v>
+        <v>0.8071249350937377</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2256,25 +2459,28 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B69">
-        <v>0.3600383615420568</v>
+        <v>0.8114074932428972</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2284,25 +2490,28 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B70">
-        <v>0.315820841870543</v>
+        <v>0.8431183909869063</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2312,25 +2521,28 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B71">
-        <v>0.5707101421797228</v>
+        <v>0.833993111378289</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2340,25 +2552,28 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B72">
-        <v>0.4633637551988769</v>
+        <v>0.8811295712577345</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2368,25 +2583,28 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B73">
-        <v>0.328295681108483</v>
+        <v>0.9010926282196993</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2396,25 +2614,28 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B74">
-        <v>0.610728923057454</v>
+        <v>0.8905408087672476</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2424,25 +2645,28 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B75">
-        <v>0.5777283520104863</v>
+        <v>0.8967956465520671</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2452,25 +2676,28 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B76">
-        <v>0.5585067637529638</v>
+        <v>0.9144132220058684</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2480,25 +2707,28 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B77">
-        <v>0.6213059234030045</v>
+        <v>0.9225972050204796</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2508,25 +2738,28 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B78">
-        <v>0.6853385921339691</v>
+        <v>0.9146059482512264</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2536,25 +2769,28 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B79">
-        <v>0.6157834028804585</v>
+        <v>0.9262759968197449</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2564,25 +2800,28 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B80">
-        <v>0.7589618545594163</v>
+        <v>0.9288814616198943</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2592,25 +2831,28 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B81">
-        <v>0.6207805455457333</v>
+        <v>0.9324082188317472</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2620,13 +2862,16 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>noun</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2634,7 +2879,7 @@
         <v>1800</v>
       </c>
       <c r="B82">
-        <v>0.7465133787955455</v>
+        <v>0.8074698631693432</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2648,13 +2893,16 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2662,7 +2910,7 @@
         <v>1810</v>
       </c>
       <c r="B83">
-        <v>0.7162459763027341</v>
+        <v>0.7654104956111887</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2676,13 +2924,16 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2690,7 +2941,7 @@
         <v>1820</v>
       </c>
       <c r="B84">
-        <v>0.725254397508172</v>
+        <v>0.7581861526975961</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2704,13 +2955,16 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2718,7 +2972,7 @@
         <v>1830</v>
       </c>
       <c r="B85">
-        <v>0.7399759768906258</v>
+        <v>0.7752679479217272</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2732,13 +2986,16 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2746,7 +3003,7 @@
         <v>1840</v>
       </c>
       <c r="B86">
-        <v>0.7489612826124944</v>
+        <v>0.7950120463231886</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2760,13 +3017,16 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2774,7 +3034,7 @@
         <v>1850</v>
       </c>
       <c r="B87">
-        <v>0.7321367157801644</v>
+        <v>0.7338109718395635</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2788,13 +3048,16 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2802,7 +3065,7 @@
         <v>1860</v>
       </c>
       <c r="B88">
-        <v>0.7264995731694706</v>
+        <v>0.7726589327589064</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2816,13 +3079,16 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2830,7 +3096,7 @@
         <v>1870</v>
       </c>
       <c r="B89">
-        <v>0.7860329339033032</v>
+        <v>0.755703977599578</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2844,13 +3110,16 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2858,7 +3127,7 @@
         <v>1880</v>
       </c>
       <c r="B90">
-        <v>0.8091151483967732</v>
+        <v>0.8040745140422381</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2872,13 +3141,16 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2886,7 +3158,7 @@
         <v>1890</v>
       </c>
       <c r="B91">
-        <v>0.8062662299535902</v>
+        <v>0.7616033861526756</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2900,13 +3172,16 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2914,7 +3189,7 @@
         <v>1900</v>
       </c>
       <c r="B92">
-        <v>0.8376657220786419</v>
+        <v>0.8389965011956473</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2928,13 +3203,16 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2942,7 +3220,7 @@
         <v>1910</v>
       </c>
       <c r="B93">
-        <v>0.8863795546995588</v>
+        <v>0.8537254195714008</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2956,13 +3234,16 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2970,7 +3251,7 @@
         <v>1920</v>
       </c>
       <c r="B94">
-        <v>0.859679201007937</v>
+        <v>0.8646141075661884</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2984,13 +3265,16 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2998,7 +3282,7 @@
         <v>1930</v>
       </c>
       <c r="B95">
-        <v>0.8695002052785591</v>
+        <v>0.8648227117861536</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3012,13 +3296,16 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3026,7 +3313,7 @@
         <v>1940</v>
       </c>
       <c r="B96">
-        <v>0.879814419390323</v>
+        <v>0.8836483148764068</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3040,13 +3327,16 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G96" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3054,7 +3344,7 @@
         <v>1950</v>
       </c>
       <c r="B97">
-        <v>0.8975192139769586</v>
+        <v>0.907711160561901</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3068,13 +3358,16 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3082,7 +3375,7 @@
         <v>1960</v>
       </c>
       <c r="B98">
-        <v>0.9137856358243047</v>
+        <v>0.8942109939191857</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3096,13 +3389,16 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3110,7 +3406,7 @@
         <v>1970</v>
       </c>
       <c r="B99">
-        <v>0.9324681882885115</v>
+        <v>0.9056070879266549</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3124,13 +3420,16 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3138,7 +3437,7 @@
         <v>1980</v>
       </c>
       <c r="B100">
-        <v>0.9303790708642815</v>
+        <v>0.8912239893046857</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -3152,13 +3451,16 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3166,7 +3468,7 @@
         <v>1990</v>
       </c>
       <c r="B101">
-        <v>0.9402086690825767</v>
+        <v>0.8847682458825445</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -3180,25 +3482,28 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
           <t>engall</t>
         </is>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B102">
-        <v>0.7666855160713684</v>
+        <v>-0.459230026805561</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3208,25 +3513,28 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B103">
-        <v>0.7265307304389952</v>
+        <v>0.4824607736308791</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3236,25 +3544,28 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B104">
-        <v>0.7257466126784664</v>
+        <v>0.2804700967622724</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3264,25 +3575,28 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B105">
-        <v>0.7313856889950443</v>
+        <v>0.399541635391748</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3292,25 +3606,28 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B106">
-        <v>0.708582279848701</v>
+        <v>0.5066268916118186</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3320,25 +3637,28 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B107">
-        <v>0.733003001598921</v>
+        <v>0.4932965561277055</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3348,25 +3668,28 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B108">
-        <v>0.7206248333413192</v>
+        <v>0.3472976547946749</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3376,25 +3699,28 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B109">
-        <v>0.703397544380843</v>
+        <v>0.411166194288031</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3404,25 +3730,28 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B110">
-        <v>0.7440006861555941</v>
+        <v>0.3409309377391415</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3432,25 +3761,28 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B111">
-        <v>0.7255724162605003</v>
+        <v>0.5706697009189654</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3460,25 +3792,28 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B112">
-        <v>0.7887371016736464</v>
+        <v>0.5725849918012144</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3488,25 +3823,28 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G112" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B113">
-        <v>0.8458947032273948</v>
+        <v>0.4854579047130455</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3516,25 +3854,28 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B114">
-        <v>0.7948572125730047</v>
+        <v>0.5865259346320097</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3544,25 +3885,28 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B115">
-        <v>0.8001819430763935</v>
+        <v>0.6742373544164956</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3572,25 +3916,28 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B116">
-        <v>0.8212183018427764</v>
+        <v>0.5983494929194708</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3600,25 +3947,28 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B117">
-        <v>0.8435716841008143</v>
+        <v>0.6689869183071269</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3628,25 +3978,28 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B118">
-        <v>0.8626667935625024</v>
+        <v>0.676124112087483</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3656,25 +4009,28 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B119">
-        <v>0.8808924413882919</v>
+        <v>0.6956216074188706</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3684,25 +4040,28 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B120">
-        <v>0.9051967116094446</v>
+        <v>0.7548356700872579</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3712,25 +4071,28 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B121">
-        <v>0.9323096928770157</v>
+        <v>0.6116496770655103</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3740,581 +4102,644 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B122">
-        <v>0.7935204340140363</v>
+        <v>-0.6270158701016707</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B123">
-        <v>0.7617412219324035</v>
+        <v>-0.005685153199202546</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B124">
-        <v>0.7607974028317466</v>
+        <v>0.2118993048475894</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B125">
-        <v>0.7727494818286386</v>
+        <v>-0.06282526071810675</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B126">
-        <v>0.7953869289576759</v>
+        <v>0.377140811365542</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G126" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B127">
-        <v>0.7455644859395024</v>
+        <v>-0.002812331974093741</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G127" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B128">
-        <v>0.7836916089338575</v>
+        <v>0.4872676731750138</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G128" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B129">
-        <v>0.7701490434447829</v>
+        <v>0.5111579738568486</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G129" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B130">
-        <v>0.8114503343484192</v>
+        <v>0.4500657151222435</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G130" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B131">
-        <v>0.7776054210042015</v>
+        <v>0.5048993159853314</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G131" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B132">
-        <v>0.8436659936641204</v>
+        <v>0.5397125436366986</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G132" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B133">
-        <v>0.8663829247071628</v>
+        <v>0.5945751479932915</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B134">
-        <v>0.8690487306173585</v>
+        <v>0.5885747564551488</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B135">
-        <v>0.8754906007823434</v>
+        <v>0.6474528962352365</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B136">
-        <v>0.8912005300164543</v>
+        <v>0.5240582902505818</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B137">
-        <v>0.9058345388231114</v>
+        <v>0.58400770170812</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B138">
-        <v>0.8950215133854781</v>
+        <v>0.6763061916291919</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B139">
-        <v>0.9067983499520423</v>
+        <v>0.6507539627820222</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B140">
-        <v>0.8995953591783092</v>
+        <v>0.6308608098835126</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B141">
-        <v>0.8951672701262621</v>
+        <v>0.6221948247718618</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>nonhuman</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>women</t>
+          <t>men</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>communal</t>
+          <t>trait</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="B142">
-        <v>-0.5545055450620223</v>
+        <v>-0.1367126447180122</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4333,16 +4758,19 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B143">
-        <v>0.4942465564592298</v>
+        <v>0.05420412576870227</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4361,16 +4789,19 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B144">
-        <v>0.3041416717344806</v>
+        <v>0.05099876022441022</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4389,16 +4820,19 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B145">
-        <v>0.3067780440458955</v>
+        <v>-0.0495308635463441</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4417,16 +4851,19 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B146">
-        <v>0.3428107455733259</v>
+        <v>-0.147092403135732</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4445,16 +4882,19 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B147">
-        <v>0.3693959617979308</v>
+        <v>-0.07478339847988108</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4473,16 +4913,19 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B148">
-        <v>0.2024482020782942</v>
+        <v>-0.1320568883121432</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4501,16 +4944,19 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G148" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B149">
-        <v>0.2977310291569898</v>
+        <v>-0.1798318919121152</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4529,16 +4975,19 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G149" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B150">
-        <v>0.2048898366748287</v>
+        <v>-0.2290795684195412</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4557,16 +5006,19 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G150" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B151">
-        <v>0.5594166948449172</v>
+        <v>-0.2206294969974367</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4585,16 +5037,19 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G151" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B152">
-        <v>0.5571861828710838</v>
+        <v>-0.2025973764890395</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4613,16 +5068,19 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G152" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B153">
-        <v>0.4507095774433906</v>
+        <v>-0.1057070256857511</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4641,16 +5099,19 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G153" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B154">
-        <v>0.5924398808689531</v>
+        <v>-0.07083159856512689</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -4669,16 +5130,19 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G154" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B155">
-        <v>0.6752322723137528</v>
+        <v>-0.06384476240119981</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4697,16 +5161,19 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G155" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B156">
-        <v>0.6012015735194716</v>
+        <v>0.09082717997030926</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -4725,16 +5192,19 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B157">
-        <v>0.6717925765612887</v>
+        <v>0.03094621907971688</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -4753,16 +5223,19 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G157" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B158">
-        <v>0.6851925035616032</v>
+        <v>0.2247119038706856</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4781,16 +5254,19 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B159">
-        <v>0.6942313439859255</v>
+        <v>0.2438003734899829</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4809,16 +5285,19 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B160">
-        <v>0.7525918642332891</v>
+        <v>0.2716489967067028</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4837,16 +5316,19 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B161">
-        <v>0.5805283173191121</v>
+        <v>0.07002767230904275</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4865,16 +5347,19 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>1810</v>
+        <v>1800</v>
       </c>
       <c r="B162">
-        <v>-0.6270158701016707</v>
+        <v>-0.174412474794706</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4893,16 +5378,19 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="B163">
-        <v>-0.005685153199202563</v>
+        <v>0.01423925667006828</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4921,16 +5409,19 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>1830</v>
+        <v>1820</v>
       </c>
       <c r="B164">
-        <v>0.2118993048475894</v>
+        <v>0.01570771231215533</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -4949,16 +5440,19 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G164" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="B165">
-        <v>-0.06282526071810673</v>
+        <v>-0.08919442737464849</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4977,16 +5471,19 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G165" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="B166">
-        <v>0.377140811365542</v>
+        <v>-0.2270850538100328</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -5005,16 +5502,19 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G166" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1860</v>
+        <v>1850</v>
       </c>
       <c r="B167">
-        <v>-0.002812331974093737</v>
+        <v>-0.2756924627139015</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -5033,16 +5533,19 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G167" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1870</v>
+        <v>1860</v>
       </c>
       <c r="B168">
-        <v>0.4872676731750138</v>
+        <v>-0.2502505959310436</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -5061,16 +5564,19 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G168" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>1880</v>
+        <v>1870</v>
       </c>
       <c r="B169">
-        <v>0.5111579738568486</v>
+        <v>-0.2974012266713241</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -5089,16 +5595,19 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="B170">
-        <v>0.4500657151222435</v>
+        <v>-0.3606907036083426</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -5117,16 +5626,19 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="B171">
-        <v>0.5048993159853314</v>
+        <v>-0.4125732970864013</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -5145,16 +5657,19 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="B172">
-        <v>0.5397125436366986</v>
+        <v>-0.3055454455380516</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -5173,16 +5688,19 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>1920</v>
+        <v>1910</v>
       </c>
       <c r="B173">
-        <v>0.5945751479932915</v>
+        <v>-0.2282564012959149</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -5201,16 +5719,19 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="B174">
-        <v>0.5885747564551488</v>
+        <v>-0.1610690048556035</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -5229,16 +5750,19 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="B175">
-        <v>0.6474528962352365</v>
+        <v>-0.2200333363877894</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -5257,16 +5781,19 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>1950</v>
+        <v>1940</v>
       </c>
       <c r="B176">
-        <v>0.5240582902505818</v>
+        <v>-0.02176832820256282</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -5285,16 +5812,19 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>1960</v>
+        <v>1950</v>
       </c>
       <c r="B177">
-        <v>0.58400770170812</v>
+        <v>-0.05098093574260674</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -5313,16 +5843,19 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1970</v>
+        <v>1960</v>
       </c>
       <c r="B178">
-        <v>0.6763061916291919</v>
+        <v>0.08327081762738658</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -5341,16 +5874,19 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="B179">
-        <v>0.6507539627820222</v>
+        <v>0.1182129890926227</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -5369,16 +5905,19 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="B180">
-        <v>0.6308608098835126</v>
+        <v>0.2245354051887388</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -5397,16 +5936,19 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="B181">
-        <v>0.6221948247718618</v>
+        <v>0.01707581176732544</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -5425,20 +5967,23 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>coha</t>
-        </is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B182">
-        <v>-0.1433551875300191</v>
+        <v>0.7009899829680749</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5453,20 +5998,23 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B183">
-        <v>0.03945634216013137</v>
+        <v>0.5331967362368301</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5481,20 +6029,23 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B184">
-        <v>0.04506312326970232</v>
+        <v>0.6507396305706437</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5509,20 +6060,23 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B185">
-        <v>-0.06537609907234228</v>
+        <v>0.5668898121896753</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5537,20 +6091,23 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B186">
-        <v>-0.168203113270568</v>
+        <v>0.6469575372293659</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5565,20 +6122,23 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B187">
-        <v>-0.1083602822695541</v>
+        <v>0.6233318429540782</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5593,20 +6153,23 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B188">
-        <v>-0.1628964863260865</v>
+        <v>0.7201339426730473</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5621,20 +6184,23 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B189">
-        <v>-0.2155408609313484</v>
+        <v>0.7891658933640331</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5649,20 +6215,23 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G189" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B190">
-        <v>-0.2573501882286215</v>
+        <v>0.7135194125906967</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5677,20 +6246,23 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G190" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B191">
-        <v>-0.2539468254924214</v>
+        <v>0.8457344534345617</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5705,20 +6277,23 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G191" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B192">
-        <v>-0.2298125126187472</v>
+        <v>0.9129603026592699</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5733,20 +6308,23 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G192" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B193">
-        <v>-0.1465882322681237</v>
+        <v>0.9056505910426254</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5761,20 +6339,23 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G193" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B194">
-        <v>-0.1113527746862468</v>
+        <v>0.9253081903249227</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5789,20 +6370,23 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G194" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B195">
-        <v>-0.1004072681350849</v>
+        <v>0.9327590716607524</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5817,20 +6401,23 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G195" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B196">
-        <v>0.0598169625747922</v>
+        <v>0.9032720839323184</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5845,20 +6432,23 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G196" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B197">
-        <v>0.0004823407830683084</v>
+        <v>0.9319317303056872</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5873,20 +6463,23 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G197" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B198">
-        <v>0.197985506073703</v>
+        <v>0.9390780349272602</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5901,20 +6494,23 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B199">
-        <v>0.2179954340398767</v>
+        <v>0.9550384826979922</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5929,20 +6525,23 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B200">
-        <v>0.2438182811770349</v>
+        <v>0.9531199553272198</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5957,20 +6556,23 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G200" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B201">
-        <v>0.04672730147632682</v>
+        <v>0.9643356909755657</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5985,576 +6587,639 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G201" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>1800</v>
+        <v>1820</v>
       </c>
       <c r="B202">
-        <v>-0.174412474794706</v>
+        <v>-0.09005881170719367</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G202" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>1810</v>
+        <v>1830</v>
       </c>
       <c r="B203">
-        <v>0.01423925667006829</v>
+        <v>0.5616527803603423</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>1820</v>
+        <v>1840</v>
       </c>
       <c r="B204">
-        <v>0.01570771231215533</v>
+        <v>0.7280725549436425</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G204" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>1830</v>
+        <v>1850</v>
       </c>
       <c r="B205">
-        <v>-0.0891944273746485</v>
+        <v>0.501598919829225</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G205" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>1840</v>
+        <v>1860</v>
       </c>
       <c r="B206">
-        <v>-0.2270850538100328</v>
+        <v>0.4987070053595011</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G206" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>1850</v>
+        <v>1870</v>
       </c>
       <c r="B207">
-        <v>-0.2756924627139015</v>
+        <v>0.4402165948026747</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="B208">
-        <v>-0.2502505959310436</v>
+        <v>0.6182423580013902</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>1870</v>
+        <v>1890</v>
       </c>
       <c r="B209">
-        <v>-0.2974012266713241</v>
+        <v>0.6748946707535954</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G209" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>1880</v>
+        <v>1900</v>
       </c>
       <c r="B210">
-        <v>-0.3606907036083426</v>
+        <v>0.6106969744631048</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G210" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>1890</v>
+        <v>1910</v>
       </c>
       <c r="B211">
-        <v>-0.4125732970864013</v>
+        <v>0.6971794863772824</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>1900</v>
+        <v>1920</v>
       </c>
       <c r="B212">
-        <v>-0.3055454455380516</v>
+        <v>0.7878763389059176</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>1910</v>
+        <v>1930</v>
       </c>
       <c r="B213">
-        <v>-0.2282564012959149</v>
+        <v>0.8321652882846046</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>1920</v>
+        <v>1940</v>
       </c>
       <c r="B214">
-        <v>-0.1610690048556035</v>
+        <v>0.8601735235308871</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>1930</v>
+        <v>1950</v>
       </c>
       <c r="B215">
-        <v>-0.2200333363877894</v>
+        <v>0.8524368497631188</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="B216">
-        <v>-0.02176832820256282</v>
+        <v>0.8025542554070931</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>1950</v>
+        <v>1970</v>
       </c>
       <c r="B217">
-        <v>-0.05098093574260674</v>
+        <v>0.8048074527136568</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="B218">
-        <v>0.0832708176273866</v>
+        <v>0.8678053056468896</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="B219">
-        <v>0.1182129890926227</v>
+        <v>0.8582280243056239</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="B220">
-        <v>0.2245354051887388</v>
+        <v>0.883405769578701</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="B221">
-        <v>0.01707581176732545</v>
+        <v>0.9218138702418449</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>nonhuman</t>
+          <t>men</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>women</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>role</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>engall</t>
-        </is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="B222">
-        <v>0.7622319807216195</v>
+        <v>-0.6265148468984472</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -6568,21 +7233,24 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G222" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="B223">
-        <v>0.5183823733500884</v>
+        <v>0.576613050042116</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -6596,21 +7264,24 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G223" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>1830</v>
+        <v>1840</v>
       </c>
       <c r="B224">
-        <v>0.6604560103389518</v>
+        <v>0.8026047577991531</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -6624,21 +7295,24 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G224" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>1840</v>
+        <v>1850</v>
       </c>
       <c r="B225">
-        <v>0.5940544319925488</v>
+        <v>0.7043783488307597</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -6652,21 +7326,24 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G225" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>1850</v>
+        <v>1860</v>
       </c>
       <c r="B226">
-        <v>0.6368320710933217</v>
+        <v>0.8100339624126449</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -6680,21 +7357,24 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G226" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>1860</v>
+        <v>1870</v>
       </c>
       <c r="B227">
-        <v>0.665021591354493</v>
+        <v>0.7145045067553836</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -6708,21 +7388,24 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G227" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1870</v>
+        <v>1880</v>
       </c>
       <c r="B228">
-        <v>0.6705379613615767</v>
+        <v>0.793622711650438</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -6736,21 +7419,24 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G228" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>1880</v>
+        <v>1890</v>
       </c>
       <c r="B229">
-        <v>0.7596321104489259</v>
+        <v>0.8452866006352261</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -6764,21 +7450,24 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G229" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>1890</v>
+        <v>1900</v>
       </c>
       <c r="B230">
-        <v>0.6725894466352335</v>
+        <v>0.8077668418261341</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -6792,21 +7481,24 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G230" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="B231">
-        <v>0.8437228820591777</v>
+        <v>0.9009265627065307</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -6820,21 +7512,24 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G231" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="B232">
-        <v>0.9176070031290924</v>
+        <v>0.9515412554874532</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -6848,21 +7543,24 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G232" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="B233">
-        <v>0.8981021862403008</v>
+        <v>0.9217608961092054</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -6876,21 +7574,24 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G233" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="B234">
-        <v>0.9292607065638071</v>
+        <v>0.9595167783996192</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -6904,21 +7605,24 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G234" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="B235">
-        <v>0.9371413015170407</v>
+        <v>0.9608149336654671</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -6932,21 +7636,24 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G235" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="B236">
-        <v>0.9101348625270533</v>
+        <v>0.9274979601182388</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -6960,21 +7667,24 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G236" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="B237">
-        <v>0.9344243787251612</v>
+        <v>0.9291199818708218</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -6988,21 +7698,24 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G237" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="B238">
-        <v>0.9454345898796156</v>
+        <v>0.9653322622281154</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -7016,21 +7729,24 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G238" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="B239">
-        <v>0.957682765145356</v>
+        <v>0.9670029976359532</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -7044,21 +7760,24 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G239" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="B240">
-        <v>0.954840739071271</v>
+        <v>0.947580062304358</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -7072,21 +7791,24 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G240" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="B241">
-        <v>0.9629704693540194</v>
+        <v>0.9696230204820439</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -7100,21 +7822,24 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>trait</t>
+          <t>agentic</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G241" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>1810</v>
+        <v>1820</v>
       </c>
       <c r="B242">
-        <v>-0.07398154930799798</v>
+        <v>-0.07954195325895835</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -7128,21 +7853,24 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G242" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="B243">
-        <v>0.5561669471668775</v>
+        <v>0.5103028543259871</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -7156,21 +7884,24 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G243" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>1830</v>
+        <v>1840</v>
       </c>
       <c r="B244">
-        <v>0.7427602278647584</v>
+        <v>0.6452716553480913</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -7184,21 +7915,24 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G244" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>1840</v>
+        <v>1850</v>
       </c>
       <c r="B245">
-        <v>0.5540294002219717</v>
+        <v>0.5714873876299776</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -7212,21 +7946,24 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G245" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>1850</v>
+        <v>1860</v>
       </c>
       <c r="B246">
-        <v>0.5642830110073191</v>
+        <v>0.6350129072742062</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -7240,21 +7977,24 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G246" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>1860</v>
+        <v>1870</v>
       </c>
       <c r="B247">
-        <v>0.4938442051447653</v>
+        <v>0.6413175235652885</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -7268,21 +8008,24 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G247" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1870</v>
+        <v>1880</v>
       </c>
       <c r="B248">
-        <v>0.6071069148610165</v>
+        <v>0.753875949933217</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -7296,21 +8039,24 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G248" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>1880</v>
+        <v>1890</v>
       </c>
       <c r="B249">
-        <v>0.6841599894620924</v>
+        <v>0.7683832069841643</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -7324,21 +8070,24 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G249" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>1890</v>
+        <v>1900</v>
       </c>
       <c r="B250">
-        <v>0.6018196329912593</v>
+        <v>0.7292570409257356</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -7352,21 +8101,24 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G250" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="B251">
-        <v>0.7082616956867853</v>
+        <v>0.8362138009990975</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -7380,21 +8132,24 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G251" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="B252">
-        <v>0.7995067438870244</v>
+        <v>0.8890809012099978</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -7408,21 +8163,24 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G252" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="B253">
-        <v>0.8312878033719873</v>
+        <v>0.873775486877861</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -7436,21 +8194,24 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G253" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>1930</v>
+        <v>1940</v>
       </c>
       <c r="B254">
-        <v>0.8701979666481441</v>
+        <v>0.9091136609338605</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -7464,21 +8225,24 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G254" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="B255">
-        <v>0.861277676881929</v>
+        <v>0.9259923140472759</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -7492,21 +8256,24 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G255" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="B256">
-        <v>0.8133633038186553</v>
+        <v>0.9039486569088263</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -7520,21 +8287,24 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G256" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1960</v>
+        <v>1970</v>
       </c>
       <c r="B257">
-        <v>0.8208433895303301</v>
+        <v>0.9191352102916539</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -7548,21 +8318,24 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G257" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="B258">
-        <v>0.8835416641259275</v>
+        <v>0.9243573892460115</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -7576,21 +8349,24 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G258" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="B259">
-        <v>0.8663455950188248</v>
+        <v>0.9382599122456055</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -7604,21 +8380,24 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G259" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>1990</v>
+        <v>2000</v>
       </c>
       <c r="B260">
-        <v>0.8902032060432199</v>
+        <v>0.9310926375780303</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -7632,21 +8411,24 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
           <t>coha</t>
         </is>
+      </c>
+      <c r="G260" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="B261">
-        <v>0.922701257145458</v>
+        <v>0.927624934462821</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -7660,7 +8442,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>communal</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -7668,565 +8450,8 @@
           <t>coha</t>
         </is>
       </c>
-    </row>
-    <row r="262">
-      <c r="A262">
-        <v>1810</v>
-      </c>
-      <c r="B262">
-        <v>-0.6265148468984472</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263">
-        <v>1820</v>
-      </c>
-      <c r="B263">
-        <v>0.576613050042116</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264">
-        <v>1830</v>
-      </c>
-      <c r="B264">
-        <v>0.8026047577991531</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265">
-        <v>1840</v>
-      </c>
-      <c r="B265">
-        <v>0.7043783488307597</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266">
-        <v>1850</v>
-      </c>
-      <c r="B266">
-        <v>0.8100339624126449</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267">
-        <v>1860</v>
-      </c>
-      <c r="B267">
-        <v>0.7145045067553836</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268">
-        <v>1870</v>
-      </c>
-      <c r="B268">
-        <v>0.793622711650438</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269">
-        <v>1880</v>
-      </c>
-      <c r="B269">
-        <v>0.8452866006352261</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270">
-        <v>1890</v>
-      </c>
-      <c r="B270">
-        <v>0.8077668418261341</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271">
-        <v>1900</v>
-      </c>
-      <c r="B271">
-        <v>0.9009265627065309</v>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272">
-        <v>1910</v>
-      </c>
-      <c r="B272">
-        <v>0.9515412554874532</v>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273">
-        <v>1920</v>
-      </c>
-      <c r="B273">
-        <v>0.9217608961092054</v>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274">
-        <v>1930</v>
-      </c>
-      <c r="B274">
-        <v>0.9595167783996192</v>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275">
-        <v>1940</v>
-      </c>
-      <c r="B275">
-        <v>0.9608149336654671</v>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276">
-        <v>1950</v>
-      </c>
-      <c r="B276">
-        <v>0.9274979601182388</v>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277">
-        <v>1960</v>
-      </c>
-      <c r="B277">
-        <v>0.929119981870822</v>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278">
-        <v>1970</v>
-      </c>
-      <c r="B278">
-        <v>0.9653322622281154</v>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279">
-        <v>1980</v>
-      </c>
-      <c r="B279">
-        <v>0.9670029976359532</v>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280">
-        <v>1990</v>
-      </c>
-      <c r="B280">
-        <v>0.947580062304358</v>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281">
-        <v>2000</v>
-      </c>
-      <c r="B281">
-        <v>0.9696230204820439</v>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>men</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>agentic</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>coha</t>
-        </is>
+      <c r="G261" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/overall_results.xlsx
+++ b/overall_results.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G261"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8454,6 +8454,4346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="262">
+      <c r="A262">
+        <v>1820</v>
+      </c>
+      <c r="B262">
+        <v>-0.5414724308632521</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>1830</v>
+      </c>
+      <c r="B263">
+        <v>0.3777259316386425</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>1840</v>
+      </c>
+      <c r="B264">
+        <v>0.3058347726278061</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>1850</v>
+      </c>
+      <c r="B265">
+        <v>0.1767885427177266</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>1860</v>
+      </c>
+      <c r="B266">
+        <v>0.1642578559925138</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>1870</v>
+      </c>
+      <c r="B267">
+        <v>0.3303020559911482</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>1880</v>
+      </c>
+      <c r="B268">
+        <v>0.5402852527013993</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>1890</v>
+      </c>
+      <c r="B269">
+        <v>0.4482541928699189</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>1900</v>
+      </c>
+      <c r="B270">
+        <v>0.4959535014344995</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G270" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>1910</v>
+      </c>
+      <c r="B271">
+        <v>0.5036863551639927</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>1920</v>
+      </c>
+      <c r="B272">
+        <v>0.6783239409827385</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>1930</v>
+      </c>
+      <c r="B273">
+        <v>0.5745791053703415</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>1940</v>
+      </c>
+      <c r="B274">
+        <v>0.7824281337732649</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>1950</v>
+      </c>
+      <c r="B275">
+        <v>0.7228281388927313</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>1960</v>
+      </c>
+      <c r="B276">
+        <v>0.7273528212547937</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>1970</v>
+      </c>
+      <c r="B277">
+        <v>0.7305428769284286</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G277" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>1980</v>
+      </c>
+      <c r="B278">
+        <v>0.740850795935732</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G278" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>1990</v>
+      </c>
+      <c r="B279">
+        <v>0.7237070413966566</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G279" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>2000</v>
+      </c>
+      <c r="B280">
+        <v>0.8217949051925898</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G280" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>2010</v>
+      </c>
+      <c r="B281">
+        <v>0.8453402826985523</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G281" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>1800</v>
+      </c>
+      <c r="B282">
+        <v>0.7252831660540331</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>1810</v>
+      </c>
+      <c r="B283">
+        <v>0.6763497004949075</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>1820</v>
+      </c>
+      <c r="B284">
+        <v>0.6986856864086529</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G284" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>1830</v>
+      </c>
+      <c r="B285">
+        <v>0.7193388846544621</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G285" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>1840</v>
+      </c>
+      <c r="B286">
+        <v>0.7364611590143103</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G286" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>1850</v>
+      </c>
+      <c r="B287">
+        <v>0.6978919524719369</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G287" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>1860</v>
+      </c>
+      <c r="B288">
+        <v>0.6970249997664034</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>1870</v>
+      </c>
+      <c r="B289">
+        <v>0.7553895356307716</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G289" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>1880</v>
+      </c>
+      <c r="B290">
+        <v>0.7880890017456382</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G290" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>1890</v>
+      </c>
+      <c r="B291">
+        <v>0.7846535679502131</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G291" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292">
+        <v>1900</v>
+      </c>
+      <c r="B292">
+        <v>0.8339044491755183</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G292" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293">
+        <v>1910</v>
+      </c>
+      <c r="B293">
+        <v>0.8710687249957068</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G293" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294">
+        <v>1920</v>
+      </c>
+      <c r="B294">
+        <v>0.8583239854950455</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G294" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295">
+        <v>1930</v>
+      </c>
+      <c r="B295">
+        <v>0.8688741285760911</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G295" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296">
+        <v>1940</v>
+      </c>
+      <c r="B296">
+        <v>0.8646572134219755</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G296" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297">
+        <v>1950</v>
+      </c>
+      <c r="B297">
+        <v>0.9016273722017253</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G297" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298">
+        <v>1960</v>
+      </c>
+      <c r="B298">
+        <v>0.9137527388707064</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G298" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299">
+        <v>1970</v>
+      </c>
+      <c r="B299">
+        <v>0.9328229850577709</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G299" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300">
+        <v>1980</v>
+      </c>
+      <c r="B300">
+        <v>0.9320237419621931</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G300" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301">
+        <v>1990</v>
+      </c>
+      <c r="B301">
+        <v>0.9353717860593624</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G301" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302">
+        <v>1800</v>
+      </c>
+      <c r="B302">
+        <v>0.7304565792560822</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G302" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303">
+        <v>1810</v>
+      </c>
+      <c r="B303">
+        <v>0.6200898071132531</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G303" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304">
+        <v>1820</v>
+      </c>
+      <c r="B304">
+        <v>0.6034710987036104</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G304" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305">
+        <v>1830</v>
+      </c>
+      <c r="B305">
+        <v>0.662117639184806</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G305" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306">
+        <v>1840</v>
+      </c>
+      <c r="B306">
+        <v>0.6330426129569137</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G306" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307">
+        <v>1850</v>
+      </c>
+      <c r="B307">
+        <v>0.6726684614338939</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G307" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308">
+        <v>1860</v>
+      </c>
+      <c r="B308">
+        <v>0.6676281478186945</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G308" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309">
+        <v>1870</v>
+      </c>
+      <c r="B309">
+        <v>0.6444224830558284</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G309" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310">
+        <v>1880</v>
+      </c>
+      <c r="B310">
+        <v>0.6930456564745565</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G310" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>1890</v>
+      </c>
+      <c r="B311">
+        <v>0.695636168267356</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G311" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>1900</v>
+      </c>
+      <c r="B312">
+        <v>0.7729323728029446</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G312" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>1910</v>
+      </c>
+      <c r="B313">
+        <v>0.8011396110444172</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G313" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>1920</v>
+      </c>
+      <c r="B314">
+        <v>0.7684735995155654</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G314" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>1930</v>
+      </c>
+      <c r="B315">
+        <v>0.7699039073455007</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G315" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>1940</v>
+      </c>
+      <c r="B316">
+        <v>0.7532647432133323</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G316" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>1950</v>
+      </c>
+      <c r="B317">
+        <v>0.8080056176337792</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G317" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>1960</v>
+      </c>
+      <c r="B318">
+        <v>0.8402418829837266</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G318" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>1970</v>
+      </c>
+      <c r="B319">
+        <v>0.8723468401629998</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G319" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>1980</v>
+      </c>
+      <c r="B320">
+        <v>0.8981021772458617</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G320" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>1990</v>
+      </c>
+      <c r="B321">
+        <v>0.929446402423452</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G321" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>1820</v>
+      </c>
+      <c r="B322">
+        <v>0.3224343792016678</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G322" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>1830</v>
+      </c>
+      <c r="B323">
+        <v>0.3316969724494238</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G323" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>1840</v>
+      </c>
+      <c r="B324">
+        <v>0.3681003852415353</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G324" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>1850</v>
+      </c>
+      <c r="B325">
+        <v>0.2816002054514656</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>1860</v>
+      </c>
+      <c r="B326">
+        <v>0.3658010554817042</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>1870</v>
+      </c>
+      <c r="B327">
+        <v>0.5273492927692782</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G327" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>1880</v>
+      </c>
+      <c r="B328">
+        <v>0.7108358262969193</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G328" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>1890</v>
+      </c>
+      <c r="B329">
+        <v>0.6728266463979611</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G329" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>1900</v>
+      </c>
+      <c r="B330">
+        <v>0.645687789575291</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G330" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>1910</v>
+      </c>
+      <c r="B331">
+        <v>0.75072715050837</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G331" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>1920</v>
+      </c>
+      <c r="B332">
+        <v>0.8715021636194076</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G332" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>1930</v>
+      </c>
+      <c r="B333">
+        <v>0.8274418174164566</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G333" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>1940</v>
+      </c>
+      <c r="B334">
+        <v>0.8953232958939932</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G334" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>1950</v>
+      </c>
+      <c r="B335">
+        <v>0.8727174875571939</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G335" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>1960</v>
+      </c>
+      <c r="B336">
+        <v>0.8765359482591025</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G336" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>1970</v>
+      </c>
+      <c r="B337">
+        <v>0.9089007472788723</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G337" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>1980</v>
+      </c>
+      <c r="B338">
+        <v>0.9097738090752056</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G338" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339">
+        <v>1990</v>
+      </c>
+      <c r="B339">
+        <v>0.9220697865495642</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G339" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340">
+        <v>2000</v>
+      </c>
+      <c r="B340">
+        <v>0.9345538076604651</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G340" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341">
+        <v>2010</v>
+      </c>
+      <c r="B341">
+        <v>0.9422194483613915</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>trait</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342">
+        <v>1800</v>
+      </c>
+      <c r="B342">
+        <v>0.791788357849021</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343">
+        <v>1810</v>
+      </c>
+      <c r="B343">
+        <v>0.7439129288856482</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344">
+        <v>1820</v>
+      </c>
+      <c r="B344">
+        <v>0.7560469269540296</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>1830</v>
+      </c>
+      <c r="B345">
+        <v>0.7606490655630219</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>1840</v>
+      </c>
+      <c r="B346">
+        <v>0.7735335728436992</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G346" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347">
+        <v>1850</v>
+      </c>
+      <c r="B347">
+        <v>0.7203594189227268</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G347" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348">
+        <v>1860</v>
+      </c>
+      <c r="B348">
+        <v>0.7633894498297268</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G348" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349">
+        <v>1870</v>
+      </c>
+      <c r="B349">
+        <v>0.7754032404756631</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G349" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350">
+        <v>1880</v>
+      </c>
+      <c r="B350">
+        <v>0.8202339932981982</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G350" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351">
+        <v>1890</v>
+      </c>
+      <c r="B351">
+        <v>0.8062729039519662</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G351" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352">
+        <v>1900</v>
+      </c>
+      <c r="B352">
+        <v>0.8706003018426053</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G352" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353">
+        <v>1910</v>
+      </c>
+      <c r="B353">
+        <v>0.8788692692294181</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354">
+        <v>1920</v>
+      </c>
+      <c r="B354">
+        <v>0.895537375679891</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355">
+        <v>1930</v>
+      </c>
+      <c r="B355">
+        <v>0.9004716600327383</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G355" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356">
+        <v>1940</v>
+      </c>
+      <c r="B356">
+        <v>0.9087502415970334</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G356" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>1950</v>
+      </c>
+      <c r="B357">
+        <v>0.933616463577547</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358">
+        <v>1960</v>
+      </c>
+      <c r="B358">
+        <v>0.9240991889156414</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359">
+        <v>1970</v>
+      </c>
+      <c r="B359">
+        <v>0.9308665342697064</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360">
+        <v>1980</v>
+      </c>
+      <c r="B360">
+        <v>0.9246809701067418</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G360" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361">
+        <v>1990</v>
+      </c>
+      <c r="B361">
+        <v>0.919237078421277</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>agentic</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G361" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362">
+        <v>1800</v>
+      </c>
+      <c r="B362">
+        <v>0.7727074099796188</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G362" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363">
+        <v>1810</v>
+      </c>
+      <c r="B363">
+        <v>0.7121853256642</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G363" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364">
+        <v>1820</v>
+      </c>
+      <c r="B364">
+        <v>0.7103175189707139</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G364" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>1830</v>
+      </c>
+      <c r="B365">
+        <v>0.7359793438282906</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G365" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>1840</v>
+      </c>
+      <c r="B366">
+        <v>0.7701170301607705</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G366" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>1850</v>
+      </c>
+      <c r="B367">
+        <v>0.718732550265477</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G367" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>1860</v>
+      </c>
+      <c r="B368">
+        <v>0.7628836487694953</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G368" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>1870</v>
+      </c>
+      <c r="B369">
+        <v>0.7537184390711119</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G369" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>1880</v>
+      </c>
+      <c r="B370">
+        <v>0.7949021492421897</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G370" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>1890</v>
+      </c>
+      <c r="B371">
+        <v>0.7562198261124528</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G371" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>1900</v>
+      </c>
+      <c r="B372">
+        <v>0.8372425310230963</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>1910</v>
+      </c>
+      <c r="B373">
+        <v>0.8535130647691683</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G373" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>1920</v>
+      </c>
+      <c r="B374">
+        <v>0.8715162892810662</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G374" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>1930</v>
+      </c>
+      <c r="B375">
+        <v>0.8750178929512894</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G375" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>1940</v>
+      </c>
+      <c r="B376">
+        <v>0.8887003906003561</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G376" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>1950</v>
+      </c>
+      <c r="B377">
+        <v>0.915738310548072</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G377" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>1960</v>
+      </c>
+      <c r="B378">
+        <v>0.8984878265970657</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G378" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>1970</v>
+      </c>
+      <c r="B379">
+        <v>0.9144462653497633</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G379" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>1980</v>
+      </c>
+      <c r="B380">
+        <v>0.8991862641718293</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G380" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>1990</v>
+      </c>
+      <c r="B381">
+        <v>0.8847682458825445</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>engall</t>
+        </is>
+      </c>
+      <c r="G381" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>1820</v>
+      </c>
+      <c r="B382">
+        <v>-0.4675316257692282</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G382" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>1830</v>
+      </c>
+      <c r="B383">
+        <v>0.4531555581767988</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G383" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>1840</v>
+      </c>
+      <c r="B384">
+        <v>0.4930853571945285</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G384" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>1850</v>
+      </c>
+      <c r="B385">
+        <v>0.3651672606407229</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G385" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>1860</v>
+      </c>
+      <c r="B386">
+        <v>0.3571126261625451</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G386" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>1870</v>
+      </c>
+      <c r="B387">
+        <v>0.6147568717313627</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G387" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>1880</v>
+      </c>
+      <c r="B388">
+        <v>0.7332032647288867</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G388" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>1890</v>
+      </c>
+      <c r="B389">
+        <v>0.6518210394972197</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G389" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>1900</v>
+      </c>
+      <c r="B390">
+        <v>0.6943733457131896</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>1910</v>
+      </c>
+      <c r="B391">
+        <v>0.7233069332596802</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G391" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>1920</v>
+      </c>
+      <c r="B392">
+        <v>0.8285468928641139</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G392" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>1930</v>
+      </c>
+      <c r="B393">
+        <v>0.7364918532837578</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G393" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>1940</v>
+      </c>
+      <c r="B394">
+        <v>0.8665841576374232</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G394" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>1950</v>
+      </c>
+      <c r="B395">
+        <v>0.8642003186270839</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G395" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>1960</v>
+      </c>
+      <c r="B396">
+        <v>0.876309030893367</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G396" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>1970</v>
+      </c>
+      <c r="B397">
+        <v>0.9013469178221454</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G397" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>1980</v>
+      </c>
+      <c r="B398">
+        <v>0.8912276803722975</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G398" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>1990</v>
+      </c>
+      <c r="B399">
+        <v>0.8957098959794533</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G399" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>2000</v>
+      </c>
+      <c r="B400">
+        <v>0.9028666341769331</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G400" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401">
+        <v>2010</v>
+      </c>
+      <c r="B401">
+        <v>0.8866898617653639</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>men</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>communal</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>coha</t>
+        </is>
+      </c>
+      <c r="G401" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
